--- a/2018软件工程导论.xlsx
+++ b/2018软件工程导论.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="390">
   <si>
     <t>《软件工程学科导论》201801学期学生花名册</t>
   </si>
@@ -1202,31 +1202,7 @@
     <t>陆吉杉</t>
   </si>
   <si>
-    <t>4.5</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+    <t>作业三</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1235,7 +1211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1387,7 +1363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,6 +1559,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1886,7 +1868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1896,10 +1878,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1924,6 +1903,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2243,50 +2234,50 @@
   <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="14" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
@@ -2295,7 +2286,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2304,7 +2295,9 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2318,7 +2311,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3">
@@ -2327,8 +2320,8 @@
       <c r="E4" s="3">
         <v>82</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>394</v>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -2343,7 +2336,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3">
@@ -2352,8 +2345,8 @@
       <c r="E5" s="3">
         <v>81</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>394</v>
+      <c r="F5" s="2">
+        <v>0</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2368,7 +2361,7 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3">
@@ -2377,8 +2370,8 @@
       <c r="E6" s="3">
         <v>86</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>394</v>
+      <c r="F6" s="2">
+        <v>0</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2393,7 +2386,7 @@
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3">
@@ -2402,8 +2395,8 @@
       <c r="E7" s="3">
         <v>84</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>394</v>
+      <c r="F7" s="2">
+        <v>0</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2418,7 +2411,7 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3">
@@ -2427,8 +2420,8 @@
       <c r="E8" s="3">
         <v>88</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>394</v>
+      <c r="F8" s="2">
+        <v>0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2443,7 +2436,7 @@
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3">
@@ -2452,8 +2445,8 @@
       <c r="E9" s="3">
         <v>88</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>394</v>
+      <c r="F9" s="2">
+        <v>0</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2468,7 +2461,7 @@
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3">
@@ -2477,8 +2470,8 @@
       <c r="E10" s="3">
         <v>82</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>394</v>
+      <c r="F10" s="2">
+        <v>0</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2493,7 +2486,7 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3">
@@ -2502,8 +2495,8 @@
       <c r="E11" s="3">
         <v>82</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>394</v>
+      <c r="F11" s="2">
+        <v>0</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2518,7 +2511,7 @@
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3">
@@ -2527,8 +2520,8 @@
       <c r="E12" s="3">
         <v>76</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>394</v>
+      <c r="F12" s="2">
+        <v>0</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2543,7 +2536,7 @@
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3">
@@ -2552,8 +2545,8 @@
       <c r="E13" s="3">
         <v>82</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>394</v>
+      <c r="F13" s="2">
+        <v>0</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2568,7 +2561,7 @@
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3">
@@ -2577,8 +2570,8 @@
       <c r="E14" s="3">
         <v>84</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>394</v>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2593,7 +2586,7 @@
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
@@ -2602,8 +2595,8 @@
       <c r="E15" s="3">
         <v>86</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>394</v>
+      <c r="F15" s="2">
+        <v>0</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2618,7 +2611,7 @@
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3">
@@ -2627,8 +2620,8 @@
       <c r="E16" s="3">
         <v>92</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>394</v>
+      <c r="F16" s="2">
+        <v>0</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2643,7 +2636,7 @@
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
@@ -2652,8 +2645,8 @@
       <c r="E17" s="3">
         <v>92</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>394</v>
+      <c r="F17" s="2">
+        <v>0</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2668,7 +2661,7 @@
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="3">
@@ -2677,8 +2670,8 @@
       <c r="E18" s="3">
         <v>94</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>394</v>
+      <c r="F18" s="2">
+        <v>0</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2693,7 +2686,7 @@
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="3">
@@ -2702,8 +2695,8 @@
       <c r="E19" s="3">
         <v>96</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>394</v>
+      <c r="F19" s="2">
+        <v>0</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2718,7 +2711,7 @@
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="3">
@@ -2727,8 +2720,8 @@
       <c r="E20" s="3">
         <v>82</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>394</v>
+      <c r="F20" s="2">
+        <v>0</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -2743,7 +2736,7 @@
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3">
@@ -2752,8 +2745,8 @@
       <c r="E21" s="3">
         <v>65</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>394</v>
+      <c r="F21" s="2">
+        <v>0</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2768,7 +2761,7 @@
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="3">
@@ -2777,8 +2770,8 @@
       <c r="E22" s="3">
         <v>96</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>394</v>
+      <c r="F22" s="2">
+        <v>0</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2793,7 +2786,7 @@
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="3">
@@ -2802,8 +2795,8 @@
       <c r="E23" s="3">
         <v>92</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>392</v>
+      <c r="F23" s="2">
+        <v>90</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2818,7 +2811,7 @@
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="3">
@@ -2827,8 +2820,8 @@
       <c r="E24" s="3">
         <v>67</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>389</v>
+      <c r="F24" s="2">
+        <v>90</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2843,7 +2836,7 @@
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="3">
@@ -2852,8 +2845,8 @@
       <c r="E25" s="3">
         <v>63</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>391</v>
+      <c r="F25" s="2">
+        <v>100</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2868,7 +2861,7 @@
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="3">
@@ -2877,8 +2870,8 @@
       <c r="E26" s="3">
         <v>50</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>391</v>
+      <c r="F26" s="2">
+        <v>100</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2893,7 +2886,7 @@
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="3">
@@ -2902,8 +2895,8 @@
       <c r="E27" s="3">
         <v>82</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>393</v>
+      <c r="F27" s="2">
+        <v>70</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2918,7 +2911,7 @@
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="3">
@@ -2927,8 +2920,8 @@
       <c r="E28" s="3">
         <v>100</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>390</v>
+      <c r="F28" s="2">
+        <v>80</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2943,7 +2936,7 @@
       <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="3">
@@ -2952,8 +2945,8 @@
       <c r="E29" s="3">
         <v>86</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>391</v>
+      <c r="F29" s="2">
+        <v>100</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2968,7 +2961,7 @@
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="3">
@@ -2977,8 +2970,8 @@
       <c r="E30" s="3">
         <v>85</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>394</v>
+      <c r="F30" s="2">
+        <v>0</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2993,7 +2986,7 @@
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="3">
@@ -3002,8 +2995,8 @@
       <c r="E31" s="3">
         <v>84</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>391</v>
+      <c r="F31" s="2">
+        <v>100</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -3018,7 +3011,7 @@
       <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="3">
@@ -3027,8 +3020,8 @@
       <c r="E32" s="3">
         <v>88</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>394</v>
+      <c r="F32" s="2">
+        <v>0</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -3043,7 +3036,7 @@
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="3">
@@ -3052,8 +3045,8 @@
       <c r="E33" s="3">
         <v>98</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>390</v>
+      <c r="F33" s="2">
+        <v>80</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -3068,7 +3061,7 @@
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="3">
@@ -3077,8 +3070,8 @@
       <c r="E34" s="3">
         <v>93</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>391</v>
+      <c r="F34" s="2">
+        <v>100</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3093,7 +3086,7 @@
       <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="3">
@@ -3102,8 +3095,8 @@
       <c r="E35" s="3">
         <v>96</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>390</v>
+      <c r="F35" s="2">
+        <v>80</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3118,7 +3111,7 @@
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="3">
@@ -3127,8 +3120,8 @@
       <c r="E36" s="3">
         <v>88</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>394</v>
+      <c r="F36" s="2">
+        <v>0</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3143,7 +3136,7 @@
       <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="3">
@@ -3152,8 +3145,8 @@
       <c r="E37" s="3">
         <v>96</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>391</v>
+      <c r="F37" s="2">
+        <v>100</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -3168,7 +3161,7 @@
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="3">
@@ -3177,8 +3170,8 @@
       <c r="E38" s="3">
         <v>96</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>393</v>
+      <c r="F38" s="2">
+        <v>70</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -3193,7 +3186,7 @@
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="3">
@@ -3202,8 +3195,8 @@
       <c r="E39" s="3">
         <v>79</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>391</v>
+      <c r="F39" s="2">
+        <v>100</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3218,7 +3211,7 @@
       <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="3">
@@ -3227,8 +3220,8 @@
       <c r="E40" s="3">
         <v>80</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>390</v>
+      <c r="F40" s="2">
+        <v>80</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -3243,7 +3236,7 @@
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="3">
@@ -3252,8 +3245,8 @@
       <c r="E41" s="3">
         <v>84</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>391</v>
+      <c r="F41" s="2">
+        <v>100</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -3268,7 +3261,7 @@
       <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3">
@@ -3277,8 +3270,8 @@
       <c r="E42" s="3">
         <v>86</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>391</v>
+      <c r="F42" s="2">
+        <v>100</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -3293,7 +3286,7 @@
       <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="3">
@@ -3302,8 +3295,8 @@
       <c r="E43" s="3">
         <v>56</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>394</v>
+      <c r="F43" s="2">
+        <v>0</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -3318,7 +3311,7 @@
       <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="3">
@@ -3327,8 +3320,8 @@
       <c r="E44" s="3">
         <v>89</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>391</v>
+      <c r="F44" s="2">
+        <v>100</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -3343,7 +3336,7 @@
       <c r="B45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="3">
@@ -3352,8 +3345,8 @@
       <c r="E45" s="3">
         <v>79</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>391</v>
+      <c r="F45" s="2">
+        <v>100</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -3368,7 +3361,7 @@
       <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="3">
@@ -3377,8 +3370,8 @@
       <c r="E46" s="3">
         <v>88</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>390</v>
+      <c r="F46" s="2">
+        <v>80</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -3393,7 +3386,7 @@
       <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="3">
@@ -3402,8 +3395,8 @@
       <c r="E47" s="3">
         <v>56</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>394</v>
+      <c r="F47" s="2">
+        <v>0</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -3418,7 +3411,7 @@
       <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="3">
@@ -3427,8 +3420,8 @@
       <c r="E48" s="3">
         <v>96</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>394</v>
+      <c r="F48" s="2">
+        <v>0</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -3443,7 +3436,7 @@
       <c r="B49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="3">
@@ -3452,8 +3445,8 @@
       <c r="E49" s="3">
         <v>88</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>391</v>
+      <c r="F49" s="2">
+        <v>100</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -3468,7 +3461,7 @@
       <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="3">
@@ -3477,8 +3470,8 @@
       <c r="E50" s="3">
         <v>88</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>394</v>
+      <c r="F50" s="2">
+        <v>0</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -3493,7 +3486,7 @@
       <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="3">
@@ -3502,8 +3495,8 @@
       <c r="E51" s="3">
         <v>88</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>392</v>
+      <c r="F51" s="2">
+        <v>90</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -3518,7 +3511,7 @@
       <c r="B52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="3">
@@ -3527,8 +3520,8 @@
       <c r="E52" s="3">
         <v>96</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>394</v>
+      <c r="F52" s="2">
+        <v>0</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3543,7 +3536,7 @@
       <c r="B53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="3">
@@ -3552,8 +3545,8 @@
       <c r="E53" s="3">
         <v>96</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>394</v>
+      <c r="F53" s="2">
+        <v>0</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3568,7 +3561,7 @@
       <c r="B54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="3">
@@ -3577,8 +3570,8 @@
       <c r="E54" s="3">
         <v>96</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>391</v>
+      <c r="F54" s="2">
+        <v>100</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -3593,7 +3586,7 @@
       <c r="B55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="3">
@@ -3602,8 +3595,8 @@
       <c r="E55" s="3">
         <v>69</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>390</v>
+      <c r="F55" s="2">
+        <v>80</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3618,7 +3611,7 @@
       <c r="B56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="3">
@@ -3627,8 +3620,8 @@
       <c r="E56" s="3">
         <v>79</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>394</v>
+      <c r="F56" s="2">
+        <v>0</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3643,7 +3636,7 @@
       <c r="B57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="3">
@@ -3652,8 +3645,8 @@
       <c r="E57" s="3">
         <v>79</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>390</v>
+      <c r="F57" s="2">
+        <v>80</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3668,7 +3661,7 @@
       <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="3">
@@ -3677,8 +3670,8 @@
       <c r="E58" s="3">
         <v>85</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>394</v>
+      <c r="F58" s="2">
+        <v>0</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3693,7 +3686,7 @@
       <c r="B59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="3">
@@ -3702,8 +3695,8 @@
       <c r="E59" s="3">
         <v>85</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>392</v>
+      <c r="F59" s="2">
+        <v>90</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -3718,7 +3711,7 @@
       <c r="B60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="3">
@@ -3727,8 +3720,8 @@
       <c r="E60" s="3">
         <v>85</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>390</v>
+      <c r="F60" s="2">
+        <v>80</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3743,7 +3736,7 @@
       <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="3">
@@ -3752,8 +3745,8 @@
       <c r="E61" s="3">
         <v>67</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>391</v>
+      <c r="F61" s="2">
+        <v>100</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3768,7 +3761,7 @@
       <c r="B62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="3">
@@ -3777,8 +3770,8 @@
       <c r="E62" s="3">
         <v>88</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>394</v>
+      <c r="F62" s="2">
+        <v>0</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -3793,7 +3786,7 @@
       <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="3">
@@ -3802,8 +3795,8 @@
       <c r="E63" s="3">
         <v>50</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>394</v>
+      <c r="F63" s="2">
+        <v>0</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -3818,7 +3811,7 @@
       <c r="B64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="3">
@@ -3827,8 +3820,8 @@
       <c r="E64" s="3">
         <v>88</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>394</v>
+      <c r="F64" s="2">
+        <v>0</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3843,7 +3836,7 @@
       <c r="B65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="3">
@@ -3852,8 +3845,8 @@
       <c r="E65" s="3">
         <v>84</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>391</v>
+      <c r="F65" s="2">
+        <v>100</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -3868,7 +3861,7 @@
       <c r="B66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="3">
@@ -3877,8 +3870,8 @@
       <c r="E66" s="3">
         <v>84</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>392</v>
+      <c r="F66" s="2">
+        <v>90</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -3893,7 +3886,7 @@
       <c r="B67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="3">
@@ -3902,8 +3895,8 @@
       <c r="E67" s="3">
         <v>88</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>394</v>
+      <c r="F67" s="2">
+        <v>0</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3918,7 +3911,7 @@
       <c r="B68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="3">
@@ -3927,8 +3920,8 @@
       <c r="E68" s="3">
         <v>86</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>394</v>
+      <c r="F68" s="2">
+        <v>0</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -3943,7 +3936,7 @@
       <c r="B69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="3">
@@ -3952,8 +3945,8 @@
       <c r="E69" s="3">
         <v>67</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>390</v>
+      <c r="F69" s="2">
+        <v>80</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -3968,7 +3961,7 @@
       <c r="B70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="3">
@@ -3977,8 +3970,8 @@
       <c r="E70" s="3">
         <v>78</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>394</v>
+      <c r="F70" s="2">
+        <v>0</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -3993,7 +3986,7 @@
       <c r="B71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="3">
@@ -4002,8 +3995,8 @@
       <c r="E71" s="3">
         <v>89</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>394</v>
+      <c r="F71" s="2">
+        <v>0</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -4018,7 +4011,7 @@
       <c r="B72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="3">
@@ -4027,8 +4020,8 @@
       <c r="E72" s="3">
         <v>86</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>394</v>
+      <c r="F72" s="2">
+        <v>0</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -4043,7 +4036,7 @@
       <c r="B73" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="3">
@@ -4052,8 +4045,8 @@
       <c r="E73" s="3">
         <v>80</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>394</v>
+      <c r="F73" s="2">
+        <v>0</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -4068,7 +4061,7 @@
       <c r="B74" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="3">
@@ -4077,8 +4070,8 @@
       <c r="E74" s="3">
         <v>56</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>391</v>
+      <c r="F74" s="2">
+        <v>100</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -4093,7 +4086,7 @@
       <c r="B75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="3">
@@ -4102,8 +4095,8 @@
       <c r="E75" s="3">
         <v>89</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>391</v>
+      <c r="F75" s="2">
+        <v>100</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -4118,7 +4111,7 @@
       <c r="B76" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="3">
@@ -4127,8 +4120,8 @@
       <c r="E76" s="3">
         <v>58</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>394</v>
+      <c r="F76" s="2">
+        <v>0</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -4143,7 +4136,7 @@
       <c r="B77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="3">
@@ -4152,8 +4145,8 @@
       <c r="E77" s="3">
         <v>79</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>394</v>
+      <c r="F77" s="2">
+        <v>0</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -4168,7 +4161,7 @@
       <c r="B78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="3">
@@ -4177,8 +4170,8 @@
       <c r="E78" s="3">
         <v>79</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>394</v>
+      <c r="F78" s="2">
+        <v>0</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -4193,7 +4186,7 @@
       <c r="B79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="3">
@@ -4202,8 +4195,8 @@
       <c r="E79" s="3">
         <v>79</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>390</v>
+      <c r="F79" s="2">
+        <v>80</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -4218,7 +4211,7 @@
       <c r="B80" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="3">
@@ -4227,8 +4220,8 @@
       <c r="E80" s="3">
         <v>78</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>391</v>
+      <c r="F80" s="2">
+        <v>100</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -4243,7 +4236,7 @@
       <c r="B81" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="3">
@@ -4252,8 +4245,8 @@
       <c r="E81" s="3">
         <v>58</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>394</v>
+      <c r="F81" s="2">
+        <v>0</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -4268,7 +4261,7 @@
       <c r="B82" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D82" s="3">
@@ -4277,8 +4270,8 @@
       <c r="E82" s="3">
         <v>78</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>394</v>
+      <c r="F82" s="2">
+        <v>0</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -4293,7 +4286,7 @@
       <c r="B83" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="3">
@@ -4302,8 +4295,8 @@
       <c r="E83" s="3">
         <v>67</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>391</v>
+      <c r="F83" s="2">
+        <v>100</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -4318,7 +4311,7 @@
       <c r="B84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D84" s="3">
@@ -4327,8 +4320,8 @@
       <c r="E84" s="3">
         <v>67</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>391</v>
+      <c r="F84" s="2">
+        <v>100</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -4343,7 +4336,7 @@
       <c r="B85" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="3">
@@ -4352,8 +4345,8 @@
       <c r="E85" s="3">
         <v>78</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>392</v>
+      <c r="F85" s="2">
+        <v>90</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -4368,7 +4361,7 @@
       <c r="B86" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="3">
@@ -4377,8 +4370,8 @@
       <c r="E86" s="3">
         <v>78</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>391</v>
+      <c r="F86" s="2">
+        <v>100</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -4393,7 +4386,7 @@
       <c r="B87" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="3">
@@ -4402,8 +4395,8 @@
       <c r="E87" s="3">
         <v>67</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>390</v>
+      <c r="F87" s="2">
+        <v>80</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -4418,7 +4411,7 @@
       <c r="B88" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="3">
@@ -4427,8 +4420,8 @@
       <c r="E88" s="3">
         <v>92</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>394</v>
+      <c r="F88" s="2">
+        <v>0</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -4443,7 +4436,7 @@
       <c r="B89" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="3">
@@ -4452,8 +4445,8 @@
       <c r="E89" s="3">
         <v>93</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>394</v>
+      <c r="F89" s="2">
+        <v>0</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -4468,7 +4461,7 @@
       <c r="B90" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="3">
@@ -4477,8 +4470,8 @@
       <c r="E90" s="3">
         <v>78</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>390</v>
+      <c r="F90" s="2">
+        <v>80</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -4493,7 +4486,7 @@
       <c r="B91" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="3">
@@ -4502,8 +4495,8 @@
       <c r="E91" s="3">
         <v>94</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>390</v>
+      <c r="F91" s="2">
+        <v>80</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -4518,7 +4511,7 @@
       <c r="B92" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="3">
@@ -4527,8 +4520,8 @@
       <c r="E92" s="3">
         <v>57</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>394</v>
+      <c r="F92" s="2">
+        <v>0</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -4543,7 +4536,7 @@
       <c r="B93" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="3">
@@ -4552,8 +4545,8 @@
       <c r="E93" s="3">
         <v>67</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>391</v>
+      <c r="F93" s="2">
+        <v>100</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4568,7 +4561,7 @@
       <c r="B94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="3">
@@ -4577,8 +4570,8 @@
       <c r="E94" s="3">
         <v>96</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>394</v>
+      <c r="F94" s="2">
+        <v>0</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4593,7 +4586,7 @@
       <c r="B95" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="3">
@@ -4602,8 +4595,8 @@
       <c r="E95" s="3">
         <v>57</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>393</v>
+      <c r="F95" s="2">
+        <v>70</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -4618,7 +4611,7 @@
       <c r="B96" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="3">
@@ -4627,8 +4620,8 @@
       <c r="E96" s="3">
         <v>65</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>394</v>
+      <c r="F96" s="2">
+        <v>0</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -4643,7 +4636,7 @@
       <c r="B97" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="3">
@@ -4652,8 +4645,8 @@
       <c r="E97" s="3">
         <v>90</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>394</v>
+      <c r="F97" s="2">
+        <v>0</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4668,7 +4661,7 @@
       <c r="B98" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="3">
@@ -4677,8 +4670,8 @@
       <c r="E98" s="3">
         <v>78</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>391</v>
+      <c r="F98" s="2">
+        <v>100</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4693,7 +4686,7 @@
       <c r="B99" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="3">
@@ -4702,8 +4695,8 @@
       <c r="E99" s="3">
         <v>78</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>391</v>
+      <c r="F99" s="2">
+        <v>100</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -4711,1005 +4704,1005 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" s="1" customFormat="1">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:11" s="14" customFormat="1">
+      <c r="A100" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="3">
+      <c r="C100" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="15">
         <v>86.6666666666667</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="15">
         <v>78</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" s="1" customFormat="1">
-      <c r="A101" s="2" t="s">
+      <c r="F100" s="12">
+        <v>100</v>
+      </c>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+    </row>
+    <row r="101" spans="1:11" s="14" customFormat="1">
+      <c r="A101" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="3">
+      <c r="C101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="15">
         <v>73.3333333333333</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="15">
         <v>75</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:11" s="1" customFormat="1">
-      <c r="A102" s="2" t="s">
+      <c r="F101" s="12">
+        <v>80</v>
+      </c>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+    </row>
+    <row r="102" spans="1:11" s="14" customFormat="1">
+      <c r="A102" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="C102" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="15">
+        <v>0</v>
+      </c>
+      <c r="E102" s="15">
         <v>69</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" s="1" customFormat="1">
-      <c r="A103" s="2" t="s">
+      <c r="F102" s="12">
+        <v>60</v>
+      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+    </row>
+    <row r="103" spans="1:11" s="14" customFormat="1">
+      <c r="A103" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="3">
+      <c r="C103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="15">
         <v>93.3333333333333</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="15">
         <v>67</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:11" s="1" customFormat="1">
-      <c r="A104" s="2" t="s">
+      <c r="F103" s="12">
+        <v>100</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+    </row>
+    <row r="104" spans="1:11" s="14" customFormat="1">
+      <c r="A104" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="3">
+      <c r="C104" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="15">
         <v>73.3333333333333</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="15">
         <v>88</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" s="1" customFormat="1">
-      <c r="A105" s="2" t="s">
+      <c r="F104" s="12">
+        <v>100</v>
+      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+    </row>
+    <row r="105" spans="1:11" s="14" customFormat="1">
+      <c r="A105" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="3">
+      <c r="C105" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="15">
         <v>80</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="15">
         <v>88</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:11" s="1" customFormat="1">
-      <c r="A106" s="2" t="s">
+      <c r="F105" s="12">
+        <v>100</v>
+      </c>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+    </row>
+    <row r="106" spans="1:11" s="14" customFormat="1">
+      <c r="A106" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="3">
+      <c r="C106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="15">
         <v>66.6666666666667</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="15">
         <v>69</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="1:11" s="1" customFormat="1">
-      <c r="A107" s="2" t="s">
+      <c r="F106" s="12">
+        <v>100</v>
+      </c>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+    </row>
+    <row r="107" spans="1:11" s="14" customFormat="1">
+      <c r="A107" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="3">
+      <c r="C107" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="15">
         <v>80</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="15">
         <v>65</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="1:11" s="1" customFormat="1">
-      <c r="A108" s="2" t="s">
+      <c r="F107" s="12">
+        <v>0</v>
+      </c>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+    </row>
+    <row r="108" spans="1:11" s="14" customFormat="1">
+      <c r="A108" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="3">
+      <c r="C108" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="15">
         <v>86.6666666666667</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="15">
         <v>78</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:11" s="1" customFormat="1">
-      <c r="A109" s="2" t="s">
+      <c r="F108" s="12">
+        <v>90</v>
+      </c>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+    </row>
+    <row r="109" spans="1:11" s="14" customFormat="1">
+      <c r="A109" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="3">
+      <c r="C109" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="15">
         <v>86.6666666666667</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="15">
         <v>76</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" s="1" customFormat="1">
-      <c r="A110" s="2" t="s">
+      <c r="F109" s="12">
+        <v>100</v>
+      </c>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+    </row>
+    <row r="110" spans="1:11" s="14" customFormat="1">
+      <c r="A110" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="3">
+      <c r="C110" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="15">
         <v>86.6666666666667</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="15">
         <v>79</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" s="1" customFormat="1">
-      <c r="A111" s="2" t="s">
+      <c r="F110" s="12">
+        <v>100</v>
+      </c>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+    </row>
+    <row r="111" spans="1:11" s="14" customFormat="1">
+      <c r="A111" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="3">
+      <c r="C111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="15">
         <v>93.3333333333333</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="15">
         <v>96</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" s="1" customFormat="1">
-      <c r="A112" s="2" t="s">
+      <c r="F111" s="12">
+        <v>70</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+    </row>
+    <row r="112" spans="1:11" s="14" customFormat="1">
+      <c r="A112" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="3">
+      <c r="C112" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="15">
         <v>86.6666666666667</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="15">
         <v>68</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:11" s="1" customFormat="1">
-      <c r="A113" s="2" t="s">
+      <c r="F112" s="12">
+        <v>100</v>
+      </c>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+    </row>
+    <row r="113" spans="1:11" s="14" customFormat="1">
+      <c r="A113" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="3">
+      <c r="C113" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="15">
         <v>66.6666666666667</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="15">
         <v>77</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="1:11" s="1" customFormat="1">
-      <c r="A114" s="2" t="s">
+      <c r="F113" s="12">
+        <v>70</v>
+      </c>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+    </row>
+    <row r="114" spans="1:11" s="14" customFormat="1">
+      <c r="A114" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" s="3">
+      <c r="C114" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="15">
         <v>73.3333333333333</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="15">
         <v>88</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="1:11" s="1" customFormat="1">
-      <c r="A115" s="2" t="s">
+      <c r="F114" s="12">
+        <v>100</v>
+      </c>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+    </row>
+    <row r="115" spans="1:11" s="14" customFormat="1">
+      <c r="A115" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="3">
+      <c r="C115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="15">
         <v>46.6666666666667</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="15">
         <v>80</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="1:11" s="1" customFormat="1">
-      <c r="A116" s="2" t="s">
+      <c r="F115" s="12">
+        <v>70</v>
+      </c>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+    </row>
+    <row r="116" spans="1:11" s="14" customFormat="1">
+      <c r="A116" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="3">
+      <c r="C116" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="15">
         <v>33.3333333333333</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="15">
         <v>69</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" s="1" customFormat="1">
-      <c r="A117" s="2" t="s">
+      <c r="F116" s="12">
+        <v>60</v>
+      </c>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+    </row>
+    <row r="117" spans="1:11" s="14" customFormat="1">
+      <c r="A117" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" s="4">
+      <c r="C117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="13">
         <v>100</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="1:11" s="1" customFormat="1">
-      <c r="A118" s="2" t="s">
+      <c r="F117" s="12">
+        <v>100</v>
+      </c>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+    </row>
+    <row r="118" spans="1:11" s="14" customFormat="1">
+      <c r="A118" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="4">
+      <c r="C118" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="13">
         <v>86</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:11" s="1" customFormat="1">
-      <c r="A119" s="2" t="s">
+      <c r="F118" s="12">
+        <v>100</v>
+      </c>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+    </row>
+    <row r="119" spans="1:11" s="14" customFormat="1">
+      <c r="A119" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="4">
+      <c r="C119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="13">
         <v>40</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="1:11" s="1" customFormat="1">
-      <c r="A120" s="2" t="s">
+      <c r="F119" s="12">
+        <v>80</v>
+      </c>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+    </row>
+    <row r="120" spans="1:11" s="14" customFormat="1">
+      <c r="A120" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="4">
+      <c r="C120" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="13">
         <v>86</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="1:11" s="1" customFormat="1">
-      <c r="A121" s="2" t="s">
+      <c r="F120" s="12">
+        <v>80</v>
+      </c>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+    </row>
+    <row r="121" spans="1:11" s="14" customFormat="1">
+      <c r="A121" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" s="4">
+      <c r="C121" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="13">
         <v>93</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="1:11" s="1" customFormat="1">
-      <c r="A122" s="2" t="s">
+      <c r="F121" s="12">
+        <v>100</v>
+      </c>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+    </row>
+    <row r="122" spans="1:11" s="14" customFormat="1">
+      <c r="A122" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="4" t="s">
+      <c r="C122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="1:11" s="1" customFormat="1">
-      <c r="A123" s="2" t="s">
+      <c r="F122" s="12">
+        <v>100</v>
+      </c>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+    </row>
+    <row r="123" spans="1:11" s="14" customFormat="1">
+      <c r="A123" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="4" t="s">
+      <c r="C123" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="1:11" s="1" customFormat="1">
-      <c r="A124" s="2" t="s">
+      <c r="F123" s="12">
+        <v>0</v>
+      </c>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+    </row>
+    <row r="124" spans="1:11" s="14" customFormat="1">
+      <c r="A124" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="4">
+      <c r="C124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="13">
         <v>93</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="1:11" s="1" customFormat="1">
-      <c r="A125" s="2" t="s">
+      <c r="F124" s="12">
+        <v>80</v>
+      </c>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+    </row>
+    <row r="125" spans="1:11" s="14" customFormat="1">
+      <c r="A125" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="4">
+      <c r="C125" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="13">
         <v>80</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="1:11" s="1" customFormat="1">
-      <c r="A126" s="2" t="s">
+      <c r="F125" s="12">
+        <v>100</v>
+      </c>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="126" spans="1:11" s="14" customFormat="1">
+      <c r="A126" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="4" t="s">
+      <c r="C126" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="1:11" s="1" customFormat="1">
-      <c r="A127" s="2" t="s">
+      <c r="F126" s="12">
+        <v>100</v>
+      </c>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+    </row>
+    <row r="127" spans="1:11" s="14" customFormat="1">
+      <c r="A127" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="4">
+      <c r="C127" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="13">
         <v>73</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="1:11" s="1" customFormat="1">
-      <c r="A128" s="2" t="s">
+      <c r="F127" s="12">
+        <v>90</v>
+      </c>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+    </row>
+    <row r="128" spans="1:11" s="14" customFormat="1">
+      <c r="A128" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="4">
+      <c r="C128" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="13">
         <v>46</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="1:11" s="1" customFormat="1">
-      <c r="A129" s="2" t="s">
+      <c r="F128" s="12">
+        <v>80</v>
+      </c>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+    </row>
+    <row r="129" spans="1:11" s="14" customFormat="1">
+      <c r="A129" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="4">
+      <c r="C129" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="13">
         <v>93</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-    </row>
-    <row r="130" spans="1:11" s="1" customFormat="1">
-      <c r="A130" s="2" t="s">
+      <c r="F129" s="12">
+        <v>90</v>
+      </c>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+    </row>
+    <row r="130" spans="1:11" s="14" customFormat="1">
+      <c r="A130" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="4">
+      <c r="C130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="13">
         <v>66</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-    </row>
-    <row r="131" spans="1:11" s="1" customFormat="1">
-      <c r="A131" s="2" t="s">
+      <c r="F130" s="12">
+        <v>0</v>
+      </c>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11" s="14" customFormat="1">
+      <c r="A131" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="4">
+      <c r="C131" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="13">
         <v>66</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="1:11" s="1" customFormat="1">
-      <c r="A132" s="2" t="s">
+      <c r="F131" s="12">
+        <v>80</v>
+      </c>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
+    <row r="132" spans="1:11" s="14" customFormat="1">
+      <c r="A132" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="4" t="s">
+      <c r="C132" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-    </row>
-    <row r="133" spans="1:11" s="1" customFormat="1">
-      <c r="A133" s="2" t="s">
+      <c r="F132" s="12">
+        <v>100</v>
+      </c>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+    </row>
+    <row r="133" spans="1:11" s="14" customFormat="1">
+      <c r="A133" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="4">
+      <c r="C133" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="13">
         <v>60</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-    </row>
-    <row r="134" spans="1:11" s="1" customFormat="1">
-      <c r="A134" s="2" t="s">
+      <c r="F133" s="12">
+        <v>100</v>
+      </c>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+    </row>
+    <row r="134" spans="1:11" s="14" customFormat="1">
+      <c r="A134" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="4" t="s">
+      <c r="C134" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-    </row>
-    <row r="135" spans="1:11" s="1" customFormat="1">
-      <c r="A135" s="2" t="s">
+      <c r="F134" s="12">
+        <v>100</v>
+      </c>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+    </row>
+    <row r="135" spans="1:11" s="14" customFormat="1">
+      <c r="A135" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="4">
+      <c r="C135" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="13">
         <v>53</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="1:11" s="1" customFormat="1">
-      <c r="A136" s="2" t="s">
+      <c r="F135" s="12">
+        <v>90</v>
+      </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+    </row>
+    <row r="136" spans="1:11" s="14" customFormat="1">
+      <c r="A136" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="4">
+      <c r="C136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="13">
         <v>73</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="1:11" s="1" customFormat="1">
-      <c r="A137" s="2" t="s">
+      <c r="F136" s="12">
+        <v>40</v>
+      </c>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+    </row>
+    <row r="137" spans="1:11" s="14" customFormat="1">
+      <c r="A137" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="3">
+      <c r="C137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="15">
         <v>60</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="15">
         <v>80</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-    </row>
-    <row r="138" spans="1:11" s="1" customFormat="1">
-      <c r="A138" s="2" t="s">
+      <c r="F137" s="12">
+        <v>90</v>
+      </c>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+    </row>
+    <row r="138" spans="1:11" s="14" customFormat="1">
+      <c r="A138" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="3">
+      <c r="C138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="15">
         <v>60</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="15">
         <v>55</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-    </row>
-    <row r="139" spans="1:11" s="1" customFormat="1">
-      <c r="A139" s="2" t="s">
+      <c r="F138" s="12">
+        <v>100</v>
+      </c>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+    </row>
+    <row r="139" spans="1:11" s="14" customFormat="1">
+      <c r="A139" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="3">
+      <c r="C139" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="15">
         <v>80</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="15">
         <v>67</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
+      <c r="F139" s="12">
+        <v>100</v>
+      </c>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
     </row>
     <row r="140" spans="1:11" s="1" customFormat="1">
       <c r="A140" s="2" t="s">
@@ -5718,7 +5711,7 @@
       <c r="B140" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="3">
@@ -5727,8 +5720,8 @@
       <c r="E140" s="3">
         <v>20</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>393</v>
+      <c r="F140" s="2">
+        <v>70</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -5743,7 +5736,7 @@
       <c r="B141" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="3">
@@ -5752,8 +5745,8 @@
       <c r="E141" s="3">
         <v>79</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>390</v>
+      <c r="F141" s="2">
+        <v>80</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -5768,7 +5761,7 @@
       <c r="B142" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="3">
@@ -5777,8 +5770,8 @@
       <c r="E142" s="3">
         <v>50</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>392</v>
+      <c r="F142" s="2">
+        <v>90</v>
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
@@ -5793,7 +5786,7 @@
       <c r="B143" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="3">
@@ -5802,8 +5795,8 @@
       <c r="E143" s="3">
         <v>67</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>392</v>
+      <c r="F143" s="2">
+        <v>90</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -5818,17 +5811,17 @@
       <c r="B144" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>392</v>
+      <c r="F144" s="2">
+        <v>90</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -5843,17 +5836,17 @@
       <c r="B145" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="3">
         <v>60</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>390</v>
+      <c r="F145" s="2">
+        <v>80</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
@@ -5868,17 +5861,17 @@
       <c r="B146" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="3">
         <v>0</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>390</v>
+      <c r="F146" s="2">
+        <v>80</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -5893,17 +5886,17 @@
       <c r="B147" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>392</v>
+      <c r="F147" s="2">
+        <v>90</v>
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
@@ -5918,17 +5911,17 @@
       <c r="B148" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>391</v>
+      <c r="F148" s="2">
+        <v>100</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -5943,17 +5936,17 @@
       <c r="B149" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D149" s="3">
         <v>93.3333333333333</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E149" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>391</v>
+      <c r="F149" s="2">
+        <v>100</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -5968,17 +5961,17 @@
       <c r="B150" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="3">
         <v>80</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>390</v>
+      <c r="F150" s="2">
+        <v>80</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -5993,17 +5986,17 @@
       <c r="B151" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="3">
         <v>93.3333333333333</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>390</v>
+      <c r="F151" s="2">
+        <v>80</v>
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
@@ -6018,17 +6011,17 @@
       <c r="B152" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="3">
         <v>0</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>391</v>
+      <c r="F152" s="2">
+        <v>100</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
@@ -6043,17 +6036,17 @@
       <c r="B153" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="3">
         <v>66.6666666666667</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E153" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>390</v>
+      <c r="F153" s="2">
+        <v>80</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
@@ -6068,17 +6061,17 @@
       <c r="B154" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>391</v>
+      <c r="F154" s="2">
+        <v>100</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
@@ -6093,17 +6086,17 @@
       <c r="B155" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>391</v>
+      <c r="F155" s="2">
+        <v>100</v>
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
@@ -6118,17 +6111,17 @@
       <c r="B156" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>391</v>
+      <c r="F156" s="2">
+        <v>100</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -6143,17 +6136,17 @@
       <c r="B157" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>395</v>
+      <c r="F157" s="2">
+        <v>60</v>
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
@@ -6168,17 +6161,17 @@
       <c r="B158" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D158" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>393</v>
+      <c r="F158" s="2">
+        <v>70</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
@@ -6193,17 +6186,17 @@
       <c r="B159" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D159" s="3">
         <v>80</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>391</v>
+      <c r="F159" s="2">
+        <v>100</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
@@ -6218,17 +6211,17 @@
       <c r="B160" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D160" s="3">
         <v>80</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>391</v>
+      <c r="F160" s="2">
+        <v>100</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
@@ -6243,17 +6236,17 @@
       <c r="B161" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E161" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>395</v>
+      <c r="F161" s="2">
+        <v>60</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
@@ -6268,17 +6261,17 @@
       <c r="B162" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="3">
         <v>93.3333333333333</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="E162" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>392</v>
+      <c r="F162" s="2">
+        <v>90</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
@@ -6293,17 +6286,17 @@
       <c r="B163" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D163" s="3">
         <v>60</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>391</v>
+      <c r="F163" s="2">
+        <v>100</v>
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
@@ -6318,17 +6311,17 @@
       <c r="B164" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="3">
         <v>66.6666666666667</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>390</v>
+      <c r="F164" s="2">
+        <v>80</v>
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
@@ -6343,17 +6336,17 @@
       <c r="B165" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D165" s="3">
         <v>100</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>391</v>
+      <c r="F165" s="2">
+        <v>100</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
@@ -6368,17 +6361,17 @@
       <c r="B166" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D166" s="3">
         <v>80</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>390</v>
+      <c r="F166" s="2">
+        <v>80</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
@@ -6393,17 +6386,17 @@
       <c r="B167" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D167" s="3">
         <v>66.6666666666667</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>392</v>
+      <c r="F167" s="2">
+        <v>90</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
@@ -6418,17 +6411,17 @@
       <c r="B168" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D168" s="3">
         <v>60</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>390</v>
+      <c r="F168" s="2">
+        <v>80</v>
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
@@ -6443,17 +6436,17 @@
       <c r="B169" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E169" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>393</v>
+      <c r="F169" s="2">
+        <v>70</v>
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
@@ -6468,17 +6461,17 @@
       <c r="B170" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>392</v>
+      <c r="F170" s="2">
+        <v>90</v>
       </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -6493,17 +6486,17 @@
       <c r="B171" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>392</v>
+      <c r="F171" s="2">
+        <v>90</v>
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
@@ -6518,17 +6511,17 @@
       <c r="B172" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F172" s="2" t="s">
-        <v>392</v>
+      <c r="F172" s="2">
+        <v>90</v>
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
@@ -6543,17 +6536,17 @@
       <c r="B173" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="3">
         <v>80</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>392</v>
+      <c r="F173" s="2">
+        <v>90</v>
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
@@ -6568,17 +6561,17 @@
       <c r="B174" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D174" s="3">
         <v>0</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>394</v>
+      <c r="F174" s="2">
+        <v>0</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -6593,17 +6586,17 @@
       <c r="B175" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="3">
         <v>40</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>391</v>
+      <c r="F175" s="2">
+        <v>100</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
@@ -6618,17 +6611,17 @@
       <c r="B176" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="3">
         <v>60</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>390</v>
+      <c r="F176" s="2">
+        <v>80</v>
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
@@ -6643,17 +6636,17 @@
       <c r="B177" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>391</v>
+      <c r="F177" s="2">
+        <v>100</v>
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>

--- a/2018软件工程导论.xlsx
+++ b/2018软件工程导论.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t>《软件工程学科导论》201801学期学生花名册</t>
   </si>
@@ -49,9 +49,6 @@
     <t>温杰</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>021700613</t>
   </si>
   <si>
@@ -730,69 +727,42 @@
     <t>黄贸之</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>221801319</t>
   </si>
   <si>
     <t>郑宏骏</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>221801320</t>
   </si>
   <si>
     <t>陈子傲</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>221801321</t>
   </si>
   <si>
     <t>黄海翔</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>221801322</t>
   </si>
   <si>
     <t>蔡晗</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>221801323</t>
   </si>
   <si>
     <t>陈修庆</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>221801324</t>
   </si>
   <si>
     <t>叶睿操</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>221801325</t>
   </si>
   <si>
@@ -811,36 +781,24 @@
     <t>黄明亮</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>221801328</t>
   </si>
   <si>
     <t>潘紫盈</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>221801329</t>
   </si>
   <si>
     <t>李宇琨</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>221801330</t>
   </si>
   <si>
     <t>陈少彬</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>221801331</t>
   </si>
   <si>
@@ -853,9 +811,6 @@
     <t>李达明</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>221801333</t>
   </si>
   <si>
@@ -868,21 +823,12 @@
     <t>李星源</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>221801335</t>
   </si>
   <si>
     <t>洪鸿林</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>221801336</t>
   </si>
   <si>
@@ -949,27 +895,18 @@
     <t>黄鹏程</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>221801408</t>
   </si>
   <si>
     <t>廖龙垲</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>221801409</t>
   </si>
   <si>
     <t>洪汉杰</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>221801410</t>
   </si>
   <si>
@@ -982,37 +919,12 @@
     <t>党朝媚</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>221801412</t>
   </si>
   <si>
     <t>刘晓君</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
     <t>221801413</t>
   </si>
   <si>
@@ -1031,9 +943,6 @@
     <t>张富源</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>221801416</t>
   </si>
   <si>
@@ -1046,9 +955,6 @@
     <t>黄雕</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>221801418</t>
   </si>
   <si>
@@ -1067,18 +973,12 @@
     <t>郑耀烽</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>221801421</t>
   </si>
   <si>
     <t>杨彬</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>221801422</t>
   </si>
   <si>
@@ -1097,9 +997,6 @@
     <t>苏杰阳</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>221801425</t>
   </si>
   <si>
@@ -1112,9 +1009,6 @@
     <t>林泽坤</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>221801427</t>
   </si>
   <si>
@@ -1133,18 +1027,12 @@
     <t>陈耀</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>221801430</t>
   </si>
   <si>
     <t>余兰</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>221801431</t>
   </si>
   <si>
@@ -1167,9 +1055,6 @@
   </si>
   <si>
     <t>杨杰</t>
-  </si>
-  <si>
-    <t>59</t>
   </si>
   <si>
     <t>221801435</t>
@@ -1868,7 +1753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1881,10 +1766,16 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1905,16 +1796,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2234,50 +2125,50 @@
   <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
@@ -2286,7 +2177,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2296,7 +2187,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2311,8 +2202,8 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
+      <c r="C4" s="14">
+        <v>2</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -2331,13 +2222,13 @@
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
+      <c r="C5" s="14">
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -2356,13 +2247,13 @@
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
+      <c r="C6" s="14">
+        <v>2</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -2381,13 +2272,13 @@
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
+      <c r="C7" s="14">
+        <v>2</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -2406,13 +2297,13 @@
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
+      <c r="C8" s="14">
+        <v>2</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -2431,13 +2322,13 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
       <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
+      <c r="C9" s="14">
+        <v>2</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -2456,13 +2347,13 @@
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1">
       <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
+      <c r="C10" s="14">
+        <v>2</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -2481,13 +2372,13 @@
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1">
       <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>11</v>
+      <c r="C11" s="14">
+        <v>2</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -2506,13 +2397,13 @@
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1">
       <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>11</v>
+      <c r="C12" s="14">
+        <v>2</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -2531,13 +2422,13 @@
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1">
       <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>11</v>
+      <c r="C13" s="14">
+        <v>2</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -2556,13 +2447,13 @@
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1">
       <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
+      <c r="C14" s="14">
+        <v>2</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -2581,13 +2472,13 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1">
       <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>11</v>
+      <c r="C15" s="14">
+        <v>2</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -2606,13 +2497,13 @@
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1">
       <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>11</v>
+      <c r="C16" s="14">
+        <v>2</v>
       </c>
       <c r="D16" s="3">
         <v>86.6666666666667</v>
@@ -2631,13 +2522,13 @@
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
       <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>11</v>
+      <c r="C17" s="14">
+        <v>2</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -2656,13 +2547,13 @@
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
       <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>11</v>
+      <c r="C18" s="14">
+        <v>2</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -2681,13 +2572,13 @@
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
       <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>11</v>
+      <c r="C19" s="14">
+        <v>2</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -2706,13 +2597,13 @@
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
       <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>11</v>
+      <c r="C20" s="14">
+        <v>2</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -2731,13 +2622,13 @@
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
       <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>11</v>
+      <c r="C21" s="14">
+        <v>2</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2756,13 +2647,13 @@
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
       <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>11</v>
+      <c r="C22" s="14">
+        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -2781,13 +2672,13 @@
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
       <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>11</v>
+      <c r="C23" s="14">
+        <v>2</v>
       </c>
       <c r="D23" s="3">
         <v>86.6666666666667</v>
@@ -2806,13 +2697,13 @@
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
       <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>11</v>
+      <c r="C24" s="14">
+        <v>2</v>
       </c>
       <c r="D24" s="3">
         <v>66.6666666666667</v>
@@ -2831,13 +2722,13 @@
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
       <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>11</v>
+      <c r="C25" s="14">
+        <v>2</v>
       </c>
       <c r="D25" s="3">
         <v>93.3333333333333</v>
@@ -2856,13 +2747,13 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
       <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>11</v>
+      <c r="C26" s="14">
+        <v>2</v>
       </c>
       <c r="D26" s="3">
         <v>73.3333333333333</v>
@@ -2881,13 +2772,13 @@
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
       <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>11</v>
+      <c r="C27" s="14">
+        <v>2</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
@@ -2906,13 +2797,13 @@
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
       <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>11</v>
+      <c r="C28" s="14">
+        <v>2</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -2931,13 +2822,13 @@
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
       <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>11</v>
+      <c r="C29" s="14">
+        <v>2</v>
       </c>
       <c r="D29" s="3">
         <v>93.3333333333333</v>
@@ -2956,13 +2847,13 @@
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
       <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>11</v>
+      <c r="C30" s="14">
+        <v>2</v>
       </c>
       <c r="D30" s="3">
         <v>86.6666666666667</v>
@@ -2981,13 +2872,13 @@
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
       <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>11</v>
+      <c r="C31" s="14">
+        <v>2</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -3006,13 +2897,13 @@
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
       <c r="A32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>11</v>
+      <c r="C32" s="14">
+        <v>2</v>
       </c>
       <c r="D32" s="3">
         <v>80</v>
@@ -3031,13 +2922,13 @@
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
       <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>11</v>
+      <c r="C33" s="14">
+        <v>2</v>
       </c>
       <c r="D33" s="3">
         <v>46.6666666666667</v>
@@ -3056,13 +2947,13 @@
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
       <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>11</v>
+      <c r="C34" s="14">
+        <v>2</v>
       </c>
       <c r="D34" s="3">
         <v>86.6666666666667</v>
@@ -3081,13 +2972,13 @@
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1">
       <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>11</v>
+      <c r="C35" s="14">
+        <v>2</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -3106,13 +2997,13 @@
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1">
       <c r="A36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>11</v>
+      <c r="C36" s="14">
+        <v>2</v>
       </c>
       <c r="D36" s="3">
         <v>86.6666666666667</v>
@@ -3131,13 +3022,13 @@
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1">
       <c r="A37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>11</v>
+      <c r="C37" s="14">
+        <v>2</v>
       </c>
       <c r="D37" s="3">
         <v>93.3333333333333</v>
@@ -3156,13 +3047,13 @@
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1">
       <c r="A38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>11</v>
+      <c r="C38" s="14">
+        <v>2</v>
       </c>
       <c r="D38" s="3">
         <v>73.3333333333333</v>
@@ -3181,13 +3072,13 @@
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1">
       <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>11</v>
+      <c r="C39" s="14">
+        <v>2</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -3206,13 +3097,13 @@
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1">
       <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>11</v>
+      <c r="C40" s="14">
+        <v>2</v>
       </c>
       <c r="D40" s="3">
         <v>66.6666666666667</v>
@@ -3231,13 +3122,13 @@
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1">
       <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>11</v>
+      <c r="C41" s="14">
+        <v>2</v>
       </c>
       <c r="D41" s="3">
         <v>93.3333333333333</v>
@@ -3256,13 +3147,13 @@
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1">
       <c r="A42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>11</v>
+      <c r="C42" s="14">
+        <v>2</v>
       </c>
       <c r="D42" s="3">
         <v>80</v>
@@ -3281,13 +3172,13 @@
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1">
       <c r="A43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>11</v>
+      <c r="C43" s="14">
+        <v>2</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -3306,13 +3197,13 @@
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1">
       <c r="A44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>11</v>
+      <c r="C44" s="14">
+        <v>2</v>
       </c>
       <c r="D44" s="3">
         <v>100</v>
@@ -3331,13 +3222,13 @@
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1">
       <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>11</v>
+      <c r="C45" s="14">
+        <v>2</v>
       </c>
       <c r="D45" s="3">
         <v>93.3333333333333</v>
@@ -3356,13 +3247,13 @@
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1">
       <c r="A46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>11</v>
+      <c r="C46" s="14">
+        <v>2</v>
       </c>
       <c r="D46" s="3">
         <v>86.6666666666667</v>
@@ -3381,13 +3272,13 @@
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1">
       <c r="A47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>11</v>
+      <c r="C47" s="14">
+        <v>2</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -3406,13 +3297,13 @@
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1">
       <c r="A48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>11</v>
+      <c r="C48" s="14">
+        <v>2</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -3431,13 +3322,13 @@
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1">
       <c r="A49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>11</v>
+      <c r="C49" s="14">
+        <v>2</v>
       </c>
       <c r="D49" s="3">
         <v>86.6666666666667</v>
@@ -3456,13 +3347,13 @@
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1">
       <c r="A50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>11</v>
+      <c r="C50" s="14">
+        <v>2</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -3481,13 +3372,13 @@
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1">
       <c r="A51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>11</v>
+      <c r="C51" s="14">
+        <v>2</v>
       </c>
       <c r="D51" s="3">
         <v>93.3333333333333</v>
@@ -3506,13 +3397,13 @@
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1">
       <c r="A52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>11</v>
+      <c r="C52" s="14">
+        <v>2</v>
       </c>
       <c r="D52" s="3">
         <v>93.3333333333333</v>
@@ -3531,13 +3422,13 @@
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1">
       <c r="A53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>11</v>
+      <c r="C53" s="14">
+        <v>2</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -3556,13 +3447,13 @@
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1">
       <c r="A54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>11</v>
+      <c r="C54" s="14">
+        <v>2</v>
       </c>
       <c r="D54" s="3">
         <v>86.6666666666667</v>
@@ -3581,13 +3472,13 @@
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1">
       <c r="A55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>11</v>
+      <c r="C55" s="14">
+        <v>2</v>
       </c>
       <c r="D55" s="3">
         <v>73.3333333333333</v>
@@ -3606,13 +3497,13 @@
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1">
       <c r="A56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>11</v>
+      <c r="C56" s="14">
+        <v>2</v>
       </c>
       <c r="D56" s="3">
         <v>80</v>
@@ -3631,13 +3522,13 @@
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1">
       <c r="A57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>11</v>
+      <c r="C57" s="14">
+        <v>2</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
@@ -3656,13 +3547,13 @@
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1">
       <c r="A58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>11</v>
+      <c r="C58" s="14">
+        <v>2</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -3681,13 +3572,13 @@
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1">
       <c r="A59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>11</v>
+      <c r="C59" s="14">
+        <v>2</v>
       </c>
       <c r="D59" s="3">
         <v>66.6666666666667</v>
@@ -3706,13 +3597,13 @@
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1">
       <c r="A60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>11</v>
+      <c r="C60" s="14">
+        <v>2</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -3731,13 +3622,13 @@
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1">
       <c r="A61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>11</v>
+      <c r="C61" s="14">
+        <v>2</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
@@ -3756,13 +3647,13 @@
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1">
       <c r="A62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>11</v>
+      <c r="C62" s="14">
+        <v>2</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -3781,13 +3672,13 @@
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1">
       <c r="A63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>11</v>
+      <c r="C63" s="14">
+        <v>2</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -3806,13 +3697,13 @@
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1">
       <c r="A64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>11</v>
+      <c r="C64" s="14">
+        <v>2</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
@@ -3831,13 +3722,13 @@
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1">
       <c r="A65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>11</v>
+      <c r="C65" s="14">
+        <v>2</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -3856,13 +3747,13 @@
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1">
       <c r="A66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>11</v>
+      <c r="C66" s="14">
+        <v>2</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
@@ -3881,13 +3772,13 @@
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1">
       <c r="A67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>11</v>
+      <c r="C67" s="14">
+        <v>2</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -3906,13 +3797,13 @@
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1">
       <c r="A68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>11</v>
+      <c r="C68" s="14">
+        <v>2</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -3931,13 +3822,13 @@
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1">
       <c r="A69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>11</v>
+      <c r="C69" s="14">
+        <v>2</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -3956,13 +3847,13 @@
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1">
       <c r="A70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>11</v>
+      <c r="C70" s="14">
+        <v>2</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -3981,13 +3872,13 @@
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1">
       <c r="A71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>11</v>
+      <c r="C71" s="14">
+        <v>2</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
@@ -4006,13 +3897,13 @@
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1">
       <c r="A72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>11</v>
+      <c r="C72" s="14">
+        <v>2</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -4031,13 +3922,13 @@
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1">
       <c r="A73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>11</v>
+      <c r="C73" s="14">
+        <v>2</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -4056,13 +3947,13 @@
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1">
       <c r="A74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>11</v>
+      <c r="C74" s="14">
+        <v>2</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -4081,13 +3972,13 @@
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1">
       <c r="A75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>11</v>
+      <c r="C75" s="14">
+        <v>2</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -4106,13 +3997,13 @@
     </row>
     <row r="76" spans="1:11" s="1" customFormat="1">
       <c r="A76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>11</v>
+      <c r="C76" s="14">
+        <v>2</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -4131,13 +4022,13 @@
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1">
       <c r="A77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>11</v>
+      <c r="C77" s="14">
+        <v>2</v>
       </c>
       <c r="D77" s="3">
         <v>60</v>
@@ -4156,13 +4047,13 @@
     </row>
     <row r="78" spans="1:11" s="1" customFormat="1">
       <c r="A78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>11</v>
+      <c r="C78" s="14">
+        <v>2</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
@@ -4181,13 +4072,13 @@
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1">
       <c r="A79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>11</v>
+      <c r="C79" s="14">
+        <v>2</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -4206,13 +4097,13 @@
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1">
       <c r="A80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>11</v>
+      <c r="C80" s="14">
+        <v>2</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -4231,13 +4122,13 @@
     </row>
     <row r="81" spans="1:11" s="1" customFormat="1">
       <c r="A81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>11</v>
+      <c r="C81" s="14">
+        <v>2</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
@@ -4256,13 +4147,13 @@
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1">
       <c r="A82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>11</v>
+      <c r="C82" s="14">
+        <v>2</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -4281,13 +4172,13 @@
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1">
       <c r="A83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>11</v>
+      <c r="C83" s="14">
+        <v>2</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
@@ -4306,13 +4197,13 @@
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1">
       <c r="A84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>11</v>
+      <c r="C84" s="14">
+        <v>2</v>
       </c>
       <c r="D84" s="3">
         <v>0</v>
@@ -4331,13 +4222,13 @@
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1">
       <c r="A85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>11</v>
+      <c r="C85" s="14">
+        <v>2</v>
       </c>
       <c r="D85" s="3">
         <v>0</v>
@@ -4356,13 +4247,13 @@
     </row>
     <row r="86" spans="1:11" s="1" customFormat="1">
       <c r="A86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>11</v>
+      <c r="C86" s="14">
+        <v>2</v>
       </c>
       <c r="D86" s="3">
         <v>0</v>
@@ -4381,13 +4272,13 @@
     </row>
     <row r="87" spans="1:11" s="1" customFormat="1">
       <c r="A87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>11</v>
+      <c r="C87" s="14">
+        <v>2</v>
       </c>
       <c r="D87" s="3">
         <v>0</v>
@@ -4406,13 +4297,13 @@
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1">
       <c r="A88" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>11</v>
+      <c r="C88" s="14">
+        <v>2</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -4431,13 +4322,13 @@
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1">
       <c r="A89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>11</v>
+      <c r="C89" s="14">
+        <v>2</v>
       </c>
       <c r="D89" s="3">
         <v>0</v>
@@ -4456,13 +4347,13 @@
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1">
       <c r="A90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>11</v>
+      <c r="C90" s="14">
+        <v>2</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -4481,13 +4372,13 @@
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1">
       <c r="A91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>11</v>
+      <c r="C91" s="14">
+        <v>2</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
@@ -4506,13 +4397,13 @@
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1">
       <c r="A92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>11</v>
+      <c r="C92" s="14">
+        <v>2</v>
       </c>
       <c r="D92" s="3">
         <v>0</v>
@@ -4531,13 +4422,13 @@
     </row>
     <row r="93" spans="1:11" s="1" customFormat="1">
       <c r="A93" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>11</v>
+      <c r="C93" s="14">
+        <v>2</v>
       </c>
       <c r="D93" s="3">
         <v>0</v>
@@ -4556,13 +4447,13 @@
     </row>
     <row r="94" spans="1:11" s="1" customFormat="1">
       <c r="A94" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>11</v>
+      <c r="C94" s="14">
+        <v>2</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
@@ -4581,13 +4472,13 @@
     </row>
     <row r="95" spans="1:11" s="1" customFormat="1">
       <c r="A95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>11</v>
+      <c r="C95" s="14">
+        <v>2</v>
       </c>
       <c r="D95" s="3">
         <v>86.6666666666667</v>
@@ -4606,13 +4497,13 @@
     </row>
     <row r="96" spans="1:11" s="1" customFormat="1">
       <c r="A96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>11</v>
+      <c r="C96" s="14">
+        <v>2</v>
       </c>
       <c r="D96" s="3">
         <v>0</v>
@@ -4631,13 +4522,13 @@
     </row>
     <row r="97" spans="1:11" s="1" customFormat="1">
       <c r="A97" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>11</v>
+      <c r="C97" s="14">
+        <v>2</v>
       </c>
       <c r="D97" s="3">
         <v>0</v>
@@ -4656,13 +4547,13 @@
     </row>
     <row r="98" spans="1:11" s="1" customFormat="1">
       <c r="A98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>11</v>
+      <c r="C98" s="14">
+        <v>2</v>
       </c>
       <c r="D98" s="3">
         <v>100</v>
@@ -4681,13 +4572,13 @@
     </row>
     <row r="99" spans="1:11" s="1" customFormat="1">
       <c r="A99" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>11</v>
+      <c r="C99" s="14">
+        <v>2</v>
       </c>
       <c r="D99" s="3">
         <v>0</v>
@@ -4704,1015 +4595,1015 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" s="14" customFormat="1">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:11" s="6" customFormat="1">
+      <c r="A100" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="C100" s="14">
+        <v>2</v>
+      </c>
+      <c r="D100" s="7">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="E100" s="7">
+        <v>78</v>
+      </c>
+      <c r="F100" s="4">
+        <v>100</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" s="6" customFormat="1">
+      <c r="A101" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="15">
+      <c r="B101" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" s="14">
+        <v>2</v>
+      </c>
+      <c r="D101" s="7">
+        <v>73.3333333333333</v>
+      </c>
+      <c r="E101" s="7">
+        <v>75</v>
+      </c>
+      <c r="F101" s="4">
+        <v>80</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11" s="6" customFormat="1">
+      <c r="A102" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="14">
+        <v>2</v>
+      </c>
+      <c r="D102" s="7">
+        <v>0</v>
+      </c>
+      <c r="E102" s="7">
+        <v>69</v>
+      </c>
+      <c r="F102" s="4">
+        <v>60</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" s="6" customFormat="1">
+      <c r="A103" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="14">
+        <v>2</v>
+      </c>
+      <c r="D103" s="7">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="E103" s="7">
+        <v>67</v>
+      </c>
+      <c r="F103" s="4">
+        <v>100</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11" s="6" customFormat="1">
+      <c r="A104" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" s="14">
+        <v>2</v>
+      </c>
+      <c r="D104" s="7">
+        <v>73.3333333333333</v>
+      </c>
+      <c r="E104" s="7">
+        <v>88</v>
+      </c>
+      <c r="F104" s="4">
+        <v>100</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11" s="6" customFormat="1">
+      <c r="A105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="14">
+        <v>2</v>
+      </c>
+      <c r="D105" s="7">
+        <v>80</v>
+      </c>
+      <c r="E105" s="7">
+        <v>88</v>
+      </c>
+      <c r="F105" s="4">
+        <v>100</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11" s="6" customFormat="1">
+      <c r="A106" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="14">
+        <v>2</v>
+      </c>
+      <c r="D106" s="7">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="E106" s="7">
+        <v>69</v>
+      </c>
+      <c r="F106" s="4">
+        <v>100</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11" s="6" customFormat="1">
+      <c r="A107" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="14">
+        <v>2</v>
+      </c>
+      <c r="D107" s="7">
+        <v>80</v>
+      </c>
+      <c r="E107" s="7">
+        <v>65</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11" s="6" customFormat="1">
+      <c r="A108" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="14">
+        <v>2</v>
+      </c>
+      <c r="D108" s="7">
         <v>86.6666666666667</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E108" s="7">
         <v>78</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F108" s="4">
+        <v>90</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11" s="6" customFormat="1">
+      <c r="A109" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="14">
+        <v>2</v>
+      </c>
+      <c r="D109" s="7">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="E109" s="7">
+        <v>76</v>
+      </c>
+      <c r="F109" s="4">
         <v>100</v>
       </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-    </row>
-    <row r="101" spans="1:11" s="14" customFormat="1">
-      <c r="A101" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="15">
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11" s="6" customFormat="1">
+      <c r="A110" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="14">
+        <v>2</v>
+      </c>
+      <c r="D110" s="7">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="E110" s="7">
+        <v>79</v>
+      </c>
+      <c r="F110" s="4">
+        <v>100</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11" s="6" customFormat="1">
+      <c r="A111" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="14">
+        <v>2</v>
+      </c>
+      <c r="D111" s="7">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="E111" s="7">
+        <v>96</v>
+      </c>
+      <c r="F111" s="4">
+        <v>70</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11" s="6" customFormat="1">
+      <c r="A112" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="14">
+        <v>2</v>
+      </c>
+      <c r="D112" s="7">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="E112" s="7">
+        <v>68</v>
+      </c>
+      <c r="F112" s="4">
+        <v>100</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11" s="6" customFormat="1">
+      <c r="A113" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="14">
+        <v>2</v>
+      </c>
+      <c r="D113" s="7">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="E113" s="7">
+        <v>77</v>
+      </c>
+      <c r="F113" s="4">
+        <v>70</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="1:11" s="6" customFormat="1">
+      <c r="A114" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="14">
+        <v>2</v>
+      </c>
+      <c r="D114" s="7">
         <v>73.3333333333333</v>
       </c>
-      <c r="E101" s="15">
-        <v>75</v>
-      </c>
-      <c r="F101" s="12">
+      <c r="E114" s="7">
+        <v>88</v>
+      </c>
+      <c r="F114" s="4">
+        <v>100</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11" s="6" customFormat="1">
+      <c r="A115" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="14">
+        <v>2</v>
+      </c>
+      <c r="D115" s="7">
+        <v>46.6666666666667</v>
+      </c>
+      <c r="E115" s="7">
         <v>80</v>
       </c>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-    </row>
-    <row r="102" spans="1:11" s="14" customFormat="1">
-      <c r="A102" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="15">
-        <v>0</v>
-      </c>
-      <c r="E102" s="15">
+      <c r="F115" s="4">
+        <v>70</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11" s="6" customFormat="1">
+      <c r="A116" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="14">
+        <v>2</v>
+      </c>
+      <c r="D116" s="7">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="E116" s="7">
         <v>69</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F116" s="4">
         <v>60</v>
       </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-    </row>
-    <row r="103" spans="1:11" s="14" customFormat="1">
-      <c r="A103" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="15">
-        <v>93.3333333333333</v>
-      </c>
-      <c r="E103" s="15">
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11" s="6" customFormat="1">
+      <c r="A117" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="14">
+        <v>2</v>
+      </c>
+      <c r="D117" s="5">
+        <v>100</v>
+      </c>
+      <c r="E117" s="14">
+        <v>69</v>
+      </c>
+      <c r="F117" s="4">
+        <v>100</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="1:11" s="6" customFormat="1">
+      <c r="A118" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="14">
+        <v>2</v>
+      </c>
+      <c r="D118" s="5">
+        <v>86</v>
+      </c>
+      <c r="E118" s="14">
+        <v>88</v>
+      </c>
+      <c r="F118" s="4">
+        <v>100</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11" s="6" customFormat="1">
+      <c r="A119" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="14">
+        <v>2</v>
+      </c>
+      <c r="D119" s="5">
+        <v>40</v>
+      </c>
+      <c r="E119" s="14">
+        <v>50</v>
+      </c>
+      <c r="F119" s="4">
+        <v>80</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:11" s="6" customFormat="1">
+      <c r="A120" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" s="14">
+        <v>2</v>
+      </c>
+      <c r="D120" s="5">
+        <v>86</v>
+      </c>
+      <c r="E120" s="14">
+        <v>86</v>
+      </c>
+      <c r="F120" s="4">
+        <v>80</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:11" s="6" customFormat="1">
+      <c r="A121" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" s="14">
+        <v>2</v>
+      </c>
+      <c r="D121" s="5">
+        <v>93</v>
+      </c>
+      <c r="E121" s="14">
+        <v>96</v>
+      </c>
+      <c r="F121" s="4">
+        <v>100</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="1:11" s="6" customFormat="1">
+      <c r="A122" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="14">
+        <v>2</v>
+      </c>
+      <c r="D122" s="15">
+        <v>73</v>
+      </c>
+      <c r="E122" s="14">
+        <v>55</v>
+      </c>
+      <c r="F122" s="4">
+        <v>100</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:11" s="6" customFormat="1">
+      <c r="A123" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="14">
+        <v>2</v>
+      </c>
+      <c r="D123" s="15">
+        <v>46</v>
+      </c>
+      <c r="E123" s="14">
+        <v>79</v>
+      </c>
+      <c r="F123" s="4">
+        <v>0</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11" s="6" customFormat="1">
+      <c r="A124" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="14">
+        <v>2</v>
+      </c>
+      <c r="D124" s="5">
+        <v>93</v>
+      </c>
+      <c r="E124" s="14">
+        <v>88</v>
+      </c>
+      <c r="F124" s="4">
+        <v>80</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="1:11" s="6" customFormat="1">
+      <c r="A125" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="14">
+        <v>2</v>
+      </c>
+      <c r="D125" s="5">
+        <v>80</v>
+      </c>
+      <c r="E125" s="14">
+        <v>88</v>
+      </c>
+      <c r="F125" s="4">
+        <v>100</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="1:11" s="6" customFormat="1">
+      <c r="A126" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="14">
+        <v>2</v>
+      </c>
+      <c r="D126" s="15">
+        <v>73</v>
+      </c>
+      <c r="E126" s="14">
+        <v>65</v>
+      </c>
+      <c r="F126" s="4">
+        <v>100</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11" s="6" customFormat="1">
+      <c r="A127" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" s="14">
+        <v>2</v>
+      </c>
+      <c r="D127" s="5">
+        <v>73</v>
+      </c>
+      <c r="E127" s="14">
+        <v>78</v>
+      </c>
+      <c r="F127" s="4">
+        <v>90</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="1:11" s="6" customFormat="1">
+      <c r="A128" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" s="14">
+        <v>2</v>
+      </c>
+      <c r="D128" s="5">
+        <v>46</v>
+      </c>
+      <c r="E128" s="14">
+        <v>60</v>
+      </c>
+      <c r="F128" s="4">
+        <v>80</v>
+      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="1:11" s="6" customFormat="1">
+      <c r="A129" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" s="14">
+        <v>2</v>
+      </c>
+      <c r="D129" s="5">
+        <v>93</v>
+      </c>
+      <c r="E129" s="14">
+        <v>90</v>
+      </c>
+      <c r="F129" s="4">
+        <v>90</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11" s="6" customFormat="1">
+      <c r="A130" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" s="14">
+        <v>2</v>
+      </c>
+      <c r="D130" s="5">
+        <v>66</v>
+      </c>
+      <c r="E130" s="14">
+        <v>69</v>
+      </c>
+      <c r="F130" s="4">
+        <v>0</v>
+      </c>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:11" s="6" customFormat="1">
+      <c r="A131" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" s="14">
+        <v>2</v>
+      </c>
+      <c r="D131" s="5">
+        <v>66</v>
+      </c>
+      <c r="E131" s="14">
+        <v>66</v>
+      </c>
+      <c r="F131" s="4">
+        <v>80</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="1:11" s="6" customFormat="1">
+      <c r="A132" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="14">
+        <v>2</v>
+      </c>
+      <c r="D132" s="15">
+        <v>73</v>
+      </c>
+      <c r="E132" s="14">
+        <v>66</v>
+      </c>
+      <c r="F132" s="4">
+        <v>100</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="1:11" s="6" customFormat="1">
+      <c r="A133" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" s="14">
+        <v>2</v>
+      </c>
+      <c r="D133" s="5">
+        <v>60</v>
+      </c>
+      <c r="E133" s="14">
         <v>67</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F133" s="4">
         <v>100</v>
       </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-    </row>
-    <row r="104" spans="1:11" s="14" customFormat="1">
-      <c r="A104" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="15">
-        <v>73.3333333333333</v>
-      </c>
-      <c r="E104" s="15">
-        <v>88</v>
-      </c>
-      <c r="F104" s="12">
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="1:11" s="6" customFormat="1">
+      <c r="A134" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" s="14">
+        <v>2</v>
+      </c>
+      <c r="D134" s="15">
+        <v>80</v>
+      </c>
+      <c r="E134" s="14">
+        <v>89</v>
+      </c>
+      <c r="F134" s="4">
         <v>100</v>
       </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-    </row>
-    <row r="105" spans="1:11" s="14" customFormat="1">
-      <c r="A105" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="15">
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="1:11" s="6" customFormat="1">
+      <c r="A135" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" s="14">
+        <v>2</v>
+      </c>
+      <c r="D135" s="5">
+        <v>53</v>
+      </c>
+      <c r="E135" s="14">
+        <v>60</v>
+      </c>
+      <c r="F135" s="4">
+        <v>90</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="1:11" s="6" customFormat="1">
+      <c r="A136" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" s="14">
+        <v>2</v>
+      </c>
+      <c r="D136" s="5">
+        <v>73</v>
+      </c>
+      <c r="E136" s="14">
+        <v>79</v>
+      </c>
+      <c r="F136" s="4">
+        <v>40</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="1:11" s="6" customFormat="1">
+      <c r="A137" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="14">
+        <v>2</v>
+      </c>
+      <c r="D137" s="7">
+        <v>60</v>
+      </c>
+      <c r="E137" s="7">
         <v>80</v>
       </c>
-      <c r="E105" s="15">
-        <v>88</v>
-      </c>
-      <c r="F105" s="12">
+      <c r="F137" s="4">
+        <v>90</v>
+      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="1:11" s="6" customFormat="1">
+      <c r="A138" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="14">
+        <v>2</v>
+      </c>
+      <c r="D138" s="7">
+        <v>60</v>
+      </c>
+      <c r="E138" s="7">
+        <v>55</v>
+      </c>
+      <c r="F138" s="4">
         <v>100</v>
       </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-    </row>
-    <row r="106" spans="1:11" s="14" customFormat="1">
-      <c r="A106" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="15">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="E106" s="15">
-        <v>69</v>
-      </c>
-      <c r="F106" s="12">
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="1:11" s="6" customFormat="1">
+      <c r="A139" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" s="14">
+        <v>2</v>
+      </c>
+      <c r="D139" s="7">
+        <v>80</v>
+      </c>
+      <c r="E139" s="7">
+        <v>67</v>
+      </c>
+      <c r="F139" s="4">
         <v>100</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-    </row>
-    <row r="107" spans="1:11" s="14" customFormat="1">
-      <c r="A107" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="15">
-        <v>80</v>
-      </c>
-      <c r="E107" s="15">
-        <v>65</v>
-      </c>
-      <c r="F107" s="12">
-        <v>0</v>
-      </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-    </row>
-    <row r="108" spans="1:11" s="14" customFormat="1">
-      <c r="A108" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="15">
-        <v>86.6666666666667</v>
-      </c>
-      <c r="E108" s="15">
-        <v>78</v>
-      </c>
-      <c r="F108" s="12">
-        <v>90</v>
-      </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-    </row>
-    <row r="109" spans="1:11" s="14" customFormat="1">
-      <c r="A109" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="15">
-        <v>86.6666666666667</v>
-      </c>
-      <c r="E109" s="15">
-        <v>76</v>
-      </c>
-      <c r="F109" s="12">
-        <v>100</v>
-      </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-    </row>
-    <row r="110" spans="1:11" s="14" customFormat="1">
-      <c r="A110" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="15">
-        <v>86.6666666666667</v>
-      </c>
-      <c r="E110" s="15">
-        <v>79</v>
-      </c>
-      <c r="F110" s="12">
-        <v>100</v>
-      </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-    </row>
-    <row r="111" spans="1:11" s="14" customFormat="1">
-      <c r="A111" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="15">
-        <v>93.3333333333333</v>
-      </c>
-      <c r="E111" s="15">
-        <v>96</v>
-      </c>
-      <c r="F111" s="12">
-        <v>70</v>
-      </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-    </row>
-    <row r="112" spans="1:11" s="14" customFormat="1">
-      <c r="A112" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="15">
-        <v>86.6666666666667</v>
-      </c>
-      <c r="E112" s="15">
-        <v>68</v>
-      </c>
-      <c r="F112" s="12">
-        <v>100</v>
-      </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-    </row>
-    <row r="113" spans="1:11" s="14" customFormat="1">
-      <c r="A113" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="15">
-        <v>66.6666666666667</v>
-      </c>
-      <c r="E113" s="15">
-        <v>77</v>
-      </c>
-      <c r="F113" s="12">
-        <v>70</v>
-      </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-    </row>
-    <row r="114" spans="1:11" s="14" customFormat="1">
-      <c r="A114" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" s="15">
-        <v>73.3333333333333</v>
-      </c>
-      <c r="E114" s="15">
-        <v>88</v>
-      </c>
-      <c r="F114" s="12">
-        <v>100</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-    </row>
-    <row r="115" spans="1:11" s="14" customFormat="1">
-      <c r="A115" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="15">
-        <v>46.6666666666667</v>
-      </c>
-      <c r="E115" s="15">
-        <v>80</v>
-      </c>
-      <c r="F115" s="12">
-        <v>70</v>
-      </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-    </row>
-    <row r="116" spans="1:11" s="14" customFormat="1">
-      <c r="A116" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="15">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="E116" s="15">
-        <v>69</v>
-      </c>
-      <c r="F116" s="12">
-        <v>60</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-    </row>
-    <row r="117" spans="1:11" s="14" customFormat="1">
-      <c r="A117" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" s="13">
-        <v>100</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F117" s="12">
-        <v>100</v>
-      </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-    </row>
-    <row r="118" spans="1:11" s="14" customFormat="1">
-      <c r="A118" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="13">
-        <v>86</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F118" s="12">
-        <v>100</v>
-      </c>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-    </row>
-    <row r="119" spans="1:11" s="14" customFormat="1">
-      <c r="A119" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="13">
-        <v>40</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F119" s="12">
-        <v>80</v>
-      </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-    </row>
-    <row r="120" spans="1:11" s="14" customFormat="1">
-      <c r="A120" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="13">
-        <v>86</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F120" s="12">
-        <v>80</v>
-      </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-    </row>
-    <row r="121" spans="1:11" s="14" customFormat="1">
-      <c r="A121" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" s="13">
-        <v>93</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F121" s="12">
-        <v>100</v>
-      </c>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-    </row>
-    <row r="122" spans="1:11" s="14" customFormat="1">
-      <c r="A122" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F122" s="12">
-        <v>100</v>
-      </c>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-    </row>
-    <row r="123" spans="1:11" s="14" customFormat="1">
-      <c r="A123" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="F123" s="12">
-        <v>0</v>
-      </c>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-    </row>
-    <row r="124" spans="1:11" s="14" customFormat="1">
-      <c r="A124" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="13">
-        <v>93</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F124" s="12">
-        <v>80</v>
-      </c>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-    </row>
-    <row r="125" spans="1:11" s="14" customFormat="1">
-      <c r="A125" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="13">
-        <v>80</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F125" s="12">
-        <v>100</v>
-      </c>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-    </row>
-    <row r="126" spans="1:11" s="14" customFormat="1">
-      <c r="A126" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F126" s="12">
-        <v>100</v>
-      </c>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-    </row>
-    <row r="127" spans="1:11" s="14" customFormat="1">
-      <c r="A127" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="13">
-        <v>73</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="F127" s="12">
-        <v>90</v>
-      </c>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-    </row>
-    <row r="128" spans="1:11" s="14" customFormat="1">
-      <c r="A128" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="13">
-        <v>46</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F128" s="12">
-        <v>80</v>
-      </c>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-    </row>
-    <row r="129" spans="1:11" s="14" customFormat="1">
-      <c r="A129" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="13">
-        <v>93</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="F129" s="12">
-        <v>90</v>
-      </c>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-    </row>
-    <row r="130" spans="1:11" s="14" customFormat="1">
-      <c r="A130" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="13">
-        <v>66</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F130" s="12">
-        <v>0</v>
-      </c>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-    </row>
-    <row r="131" spans="1:11" s="14" customFormat="1">
-      <c r="A131" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="13">
-        <v>66</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F131" s="12">
-        <v>80</v>
-      </c>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
-    </row>
-    <row r="132" spans="1:11" s="14" customFormat="1">
-      <c r="A132" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F132" s="12">
-        <v>100</v>
-      </c>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
-    </row>
-    <row r="133" spans="1:11" s="14" customFormat="1">
-      <c r="A133" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="13">
-        <v>60</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="F133" s="12">
-        <v>100</v>
-      </c>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-    </row>
-    <row r="134" spans="1:11" s="14" customFormat="1">
-      <c r="A134" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="F134" s="12">
-        <v>100</v>
-      </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-    </row>
-    <row r="135" spans="1:11" s="14" customFormat="1">
-      <c r="A135" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="13">
-        <v>53</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F135" s="12">
-        <v>90</v>
-      </c>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-    </row>
-    <row r="136" spans="1:11" s="14" customFormat="1">
-      <c r="A136" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="13">
-        <v>73</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="F136" s="12">
-        <v>40</v>
-      </c>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-    </row>
-    <row r="137" spans="1:11" s="14" customFormat="1">
-      <c r="A137" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="15">
-        <v>60</v>
-      </c>
-      <c r="E137" s="15">
-        <v>80</v>
-      </c>
-      <c r="F137" s="12">
-        <v>90</v>
-      </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12"/>
-    </row>
-    <row r="138" spans="1:11" s="14" customFormat="1">
-      <c r="A138" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="15">
-        <v>60</v>
-      </c>
-      <c r="E138" s="15">
-        <v>55</v>
-      </c>
-      <c r="F138" s="12">
-        <v>100</v>
-      </c>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
-    </row>
-    <row r="139" spans="1:11" s="14" customFormat="1">
-      <c r="A139" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="15">
-        <v>80</v>
-      </c>
-      <c r="E139" s="15">
-        <v>67</v>
-      </c>
-      <c r="F139" s="12">
-        <v>100</v>
-      </c>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
     </row>
     <row r="140" spans="1:11" s="1" customFormat="1">
       <c r="A140" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>11</v>
+        <v>282</v>
+      </c>
+      <c r="C140" s="14">
+        <v>2</v>
       </c>
       <c r="D140" s="3">
         <v>73.3333333333333</v>
@@ -5731,13 +5622,13 @@
     </row>
     <row r="141" spans="1:11" s="1" customFormat="1">
       <c r="A141" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>11</v>
+        <v>284</v>
+      </c>
+      <c r="C141" s="14">
+        <v>2</v>
       </c>
       <c r="D141" s="3">
         <v>73.3333333333333</v>
@@ -5756,13 +5647,13 @@
     </row>
     <row r="142" spans="1:11" s="1" customFormat="1">
       <c r="A142" s="2" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>11</v>
+        <v>286</v>
+      </c>
+      <c r="C142" s="14">
+        <v>2</v>
       </c>
       <c r="D142" s="3">
         <v>66.6666666666667</v>
@@ -5781,13 +5672,13 @@
     </row>
     <row r="143" spans="1:11" s="1" customFormat="1">
       <c r="A143" s="2" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>11</v>
+        <v>288</v>
+      </c>
+      <c r="C143" s="14">
+        <v>2</v>
       </c>
       <c r="D143" s="3">
         <v>66.6666666666667</v>
@@ -5806,19 +5697,19 @@
     </row>
     <row r="144" spans="1:11" s="1" customFormat="1">
       <c r="A144" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>11</v>
+        <v>290</v>
+      </c>
+      <c r="C144" s="14">
+        <v>2</v>
       </c>
       <c r="D144" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>284</v>
+      <c r="E144" s="16">
+        <v>67</v>
       </c>
       <c r="F144" s="2">
         <v>90</v>
@@ -5831,19 +5722,19 @@
     </row>
     <row r="145" spans="1:11" s="1" customFormat="1">
       <c r="A145" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>11</v>
+        <v>292</v>
+      </c>
+      <c r="C145" s="14">
+        <v>2</v>
       </c>
       <c r="D145" s="3">
         <v>60</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>311</v>
+      <c r="E145" s="16">
+        <v>35</v>
       </c>
       <c r="F145" s="2">
         <v>80</v>
@@ -5856,19 +5747,19 @@
     </row>
     <row r="146" spans="1:11" s="1" customFormat="1">
       <c r="A146" s="2" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>11</v>
+        <v>294</v>
+      </c>
+      <c r="C146" s="14">
+        <v>2</v>
       </c>
       <c r="D146" s="3">
         <v>0</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>314</v>
+      <c r="E146" s="16">
+        <v>30</v>
       </c>
       <c r="F146" s="2">
         <v>80</v>
@@ -5881,19 +5772,19 @@
     </row>
     <row r="147" spans="1:11" s="1" customFormat="1">
       <c r="A147" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>11</v>
+        <v>296</v>
+      </c>
+      <c r="C147" s="14">
+        <v>2</v>
       </c>
       <c r="D147" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>317</v>
+      <c r="E147" s="16">
+        <v>53</v>
       </c>
       <c r="F147" s="2">
         <v>90</v>
@@ -5906,19 +5797,19 @@
     </row>
     <row r="148" spans="1:11" s="1" customFormat="1">
       <c r="A148" s="2" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>11</v>
+        <v>298</v>
+      </c>
+      <c r="C148" s="14">
+        <v>2</v>
       </c>
       <c r="D148" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>274</v>
+      <c r="E148" s="16">
+        <v>90</v>
       </c>
       <c r="F148" s="2">
         <v>100</v>
@@ -5931,19 +5822,19 @@
     </row>
     <row r="149" spans="1:11" s="1" customFormat="1">
       <c r="A149" s="2" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>11</v>
+        <v>300</v>
+      </c>
+      <c r="C149" s="14">
+        <v>2</v>
       </c>
       <c r="D149" s="3">
         <v>93.3333333333333</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>322</v>
+      <c r="E149" s="16">
+        <v>36</v>
       </c>
       <c r="F149" s="2">
         <v>100</v>
@@ -5956,19 +5847,19 @@
     </row>
     <row r="150" spans="1:11" s="1" customFormat="1">
       <c r="A150" s="2" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>11</v>
+        <v>302</v>
+      </c>
+      <c r="C150" s="14">
+        <v>2</v>
       </c>
       <c r="D150" s="3">
         <v>80</v>
       </c>
-      <c r="E150" s="5" t="s">
-        <v>325</v>
+      <c r="E150" s="17">
+        <v>67</v>
       </c>
       <c r="F150" s="2">
         <v>80</v>
@@ -5981,19 +5872,19 @@
     </row>
     <row r="151" spans="1:11" s="1" customFormat="1">
       <c r="A151" s="2" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>11</v>
+        <v>304</v>
+      </c>
+      <c r="C151" s="14">
+        <v>2</v>
       </c>
       <c r="D151" s="3">
         <v>93.3333333333333</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>284</v>
+      <c r="E151" s="16">
+        <v>67</v>
       </c>
       <c r="F151" s="2">
         <v>80</v>
@@ -6006,19 +5897,19 @@
     </row>
     <row r="152" spans="1:11" s="1" customFormat="1">
       <c r="A152" s="2" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>11</v>
+        <v>306</v>
+      </c>
+      <c r="C152" s="14">
+        <v>2</v>
       </c>
       <c r="D152" s="3">
         <v>0</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>322</v>
+      <c r="E152" s="16">
+        <v>36</v>
       </c>
       <c r="F152" s="2">
         <v>100</v>
@@ -6031,19 +5922,19 @@
     </row>
     <row r="153" spans="1:11" s="1" customFormat="1">
       <c r="A153" s="2" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>11</v>
+        <v>308</v>
+      </c>
+      <c r="C153" s="14">
+        <v>2</v>
       </c>
       <c r="D153" s="3">
         <v>66.6666666666667</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>332</v>
+      <c r="E153" s="16">
+        <v>57</v>
       </c>
       <c r="F153" s="2">
         <v>80</v>
@@ -6056,19 +5947,19 @@
     </row>
     <row r="154" spans="1:11" s="1" customFormat="1">
       <c r="A154" s="2" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>11</v>
+        <v>310</v>
+      </c>
+      <c r="C154" s="14">
+        <v>2</v>
       </c>
       <c r="D154" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>271</v>
+      <c r="E154" s="16">
+        <v>60</v>
       </c>
       <c r="F154" s="2">
         <v>100</v>
@@ -6081,19 +5972,19 @@
     </row>
     <row r="155" spans="1:11" s="1" customFormat="1">
       <c r="A155" s="2" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>11</v>
+        <v>312</v>
+      </c>
+      <c r="C155" s="14">
+        <v>2</v>
       </c>
       <c r="D155" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>337</v>
+      <c r="E155" s="16">
+        <v>34</v>
       </c>
       <c r="F155" s="2">
         <v>100</v>
@@ -6106,19 +5997,19 @@
     </row>
     <row r="156" spans="1:11" s="1" customFormat="1">
       <c r="A156" s="2" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>11</v>
+        <v>314</v>
+      </c>
+      <c r="C156" s="14">
+        <v>2</v>
       </c>
       <c r="D156" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>244</v>
+      <c r="E156" s="16">
+        <v>50</v>
       </c>
       <c r="F156" s="2">
         <v>100</v>
@@ -6131,19 +6022,19 @@
     </row>
     <row r="157" spans="1:11" s="1" customFormat="1">
       <c r="A157" s="2" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>11</v>
+        <v>316</v>
+      </c>
+      <c r="C157" s="14">
+        <v>2</v>
       </c>
       <c r="D157" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>311</v>
+      <c r="E157" s="16">
+        <v>35</v>
       </c>
       <c r="F157" s="2">
         <v>60</v>
@@ -6156,19 +6047,19 @@
     </row>
     <row r="158" spans="1:11" s="1" customFormat="1">
       <c r="A158" s="2" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>11</v>
+        <v>318</v>
+      </c>
+      <c r="C158" s="14">
+        <v>2</v>
       </c>
       <c r="D158" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>344</v>
+      <c r="E158" s="16">
+        <v>100</v>
       </c>
       <c r="F158" s="2">
         <v>70</v>
@@ -6181,19 +6072,19 @@
     </row>
     <row r="159" spans="1:11" s="1" customFormat="1">
       <c r="A159" s="2" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>11</v>
+        <v>320</v>
+      </c>
+      <c r="C159" s="14">
+        <v>2</v>
       </c>
       <c r="D159" s="3">
         <v>80</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>347</v>
+      <c r="E159" s="16">
+        <v>68</v>
       </c>
       <c r="F159" s="2">
         <v>100</v>
@@ -6206,19 +6097,19 @@
     </row>
     <row r="160" spans="1:11" s="1" customFormat="1">
       <c r="A160" s="2" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>11</v>
+        <v>322</v>
+      </c>
+      <c r="C160" s="14">
+        <v>2</v>
       </c>
       <c r="D160" s="3">
         <v>80</v>
       </c>
-      <c r="E160" s="4" t="s">
-        <v>238</v>
+      <c r="E160" s="16">
+        <v>69</v>
       </c>
       <c r="F160" s="2">
         <v>100</v>
@@ -6231,19 +6122,19 @@
     </row>
     <row r="161" spans="1:11" s="1" customFormat="1">
       <c r="A161" s="2" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>11</v>
+        <v>324</v>
+      </c>
+      <c r="C161" s="14">
+        <v>2</v>
       </c>
       <c r="D161" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>271</v>
+      <c r="E161" s="16">
+        <v>60</v>
       </c>
       <c r="F161" s="2">
         <v>60</v>
@@ -6256,19 +6147,19 @@
     </row>
     <row r="162" spans="1:11" s="1" customFormat="1">
       <c r="A162" s="2" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>11</v>
+        <v>326</v>
+      </c>
+      <c r="C162" s="14">
+        <v>2</v>
       </c>
       <c r="D162" s="3">
         <v>93.3333333333333</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>354</v>
+      <c r="E162" s="16">
+        <v>20</v>
       </c>
       <c r="F162" s="2">
         <v>90</v>
@@ -6281,19 +6172,19 @@
     </row>
     <row r="163" spans="1:11" s="1" customFormat="1">
       <c r="A163" s="2" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>11</v>
+        <v>328</v>
+      </c>
+      <c r="C163" s="14">
+        <v>2</v>
       </c>
       <c r="D163" s="3">
         <v>60</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>288</v>
+      <c r="E163" s="16">
+        <v>89</v>
       </c>
       <c r="F163" s="2">
         <v>100</v>
@@ -6306,19 +6197,19 @@
     </row>
     <row r="164" spans="1:11" s="1" customFormat="1">
       <c r="A164" s="2" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>11</v>
+        <v>330</v>
+      </c>
+      <c r="C164" s="14">
+        <v>2</v>
       </c>
       <c r="D164" s="3">
         <v>66.6666666666667</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>359</v>
+      <c r="E164" s="16">
+        <v>70</v>
       </c>
       <c r="F164" s="2">
         <v>80</v>
@@ -6331,19 +6222,19 @@
     </row>
     <row r="165" spans="1:11" s="1" customFormat="1">
       <c r="A165" s="2" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>11</v>
+        <v>332</v>
+      </c>
+      <c r="C165" s="14">
+        <v>2</v>
       </c>
       <c r="D165" s="3">
         <v>100</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>287</v>
+      <c r="E165" s="16">
+        <v>80</v>
       </c>
       <c r="F165" s="2">
         <v>100</v>
@@ -6356,19 +6247,19 @@
     </row>
     <row r="166" spans="1:11" s="1" customFormat="1">
       <c r="A166" s="2" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>11</v>
+        <v>334</v>
+      </c>
+      <c r="C166" s="14">
+        <v>2</v>
       </c>
       <c r="D166" s="3">
         <v>80</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>311</v>
+      <c r="E166" s="16">
+        <v>35</v>
       </c>
       <c r="F166" s="2">
         <v>80</v>
@@ -6381,19 +6272,19 @@
     </row>
     <row r="167" spans="1:11" s="1" customFormat="1">
       <c r="A167" s="2" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>11</v>
+        <v>336</v>
+      </c>
+      <c r="C167" s="14">
+        <v>2</v>
       </c>
       <c r="D167" s="3">
         <v>66.6666666666667</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>366</v>
+      <c r="E167" s="16">
+        <v>71</v>
       </c>
       <c r="F167" s="2">
         <v>90</v>
@@ -6406,19 +6297,19 @@
     </row>
     <row r="168" spans="1:11" s="1" customFormat="1">
       <c r="A168" s="2" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>11</v>
+        <v>338</v>
+      </c>
+      <c r="C168" s="14">
+        <v>2</v>
       </c>
       <c r="D168" s="3">
         <v>60</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>369</v>
+      <c r="E168" s="16">
+        <v>81</v>
       </c>
       <c r="F168" s="2">
         <v>80</v>
@@ -6431,19 +6322,19 @@
     </row>
     <row r="169" spans="1:11" s="1" customFormat="1">
       <c r="A169" s="2" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>11</v>
+        <v>340</v>
+      </c>
+      <c r="C169" s="14">
+        <v>2</v>
       </c>
       <c r="D169" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>268</v>
+      <c r="E169" s="16">
+        <v>78</v>
       </c>
       <c r="F169" s="2">
         <v>70</v>
@@ -6456,19 +6347,19 @@
     </row>
     <row r="170" spans="1:11" s="1" customFormat="1">
       <c r="A170" s="2" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>11</v>
+        <v>342</v>
+      </c>
+      <c r="C170" s="14">
+        <v>2</v>
       </c>
       <c r="D170" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>347</v>
+      <c r="E170" s="16">
+        <v>68</v>
       </c>
       <c r="F170" s="2">
         <v>90</v>
@@ -6481,19 +6372,19 @@
     </row>
     <row r="171" spans="1:11" s="1" customFormat="1">
       <c r="A171" s="2" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>11</v>
+        <v>344</v>
+      </c>
+      <c r="C171" s="14">
+        <v>2</v>
       </c>
       <c r="D171" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>332</v>
+      <c r="E171" s="16">
+        <v>57</v>
       </c>
       <c r="F171" s="2">
         <v>90</v>
@@ -6506,19 +6397,19 @@
     </row>
     <row r="172" spans="1:11" s="1" customFormat="1">
       <c r="A172" s="2" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>11</v>
+        <v>346</v>
+      </c>
+      <c r="C172" s="14">
+        <v>2</v>
       </c>
       <c r="D172" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>378</v>
+      <c r="E172" s="16">
+        <v>59</v>
       </c>
       <c r="F172" s="2">
         <v>90</v>
@@ -6531,19 +6422,19 @@
     </row>
     <row r="173" spans="1:11" s="1" customFormat="1">
       <c r="A173" s="2" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>11</v>
+        <v>348</v>
+      </c>
+      <c r="C173" s="14">
+        <v>2</v>
       </c>
       <c r="D173" s="3">
         <v>80</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>332</v>
+      <c r="E173" s="16">
+        <v>57</v>
       </c>
       <c r="F173" s="2">
         <v>90</v>
@@ -6556,19 +6447,19 @@
     </row>
     <row r="174" spans="1:11" s="1" customFormat="1">
       <c r="A174" s="2" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>11</v>
+        <v>350</v>
+      </c>
+      <c r="C174" s="14">
+        <v>2</v>
       </c>
       <c r="D174" s="3">
         <v>0</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>258</v>
+      <c r="E174" s="16">
+        <v>79</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
@@ -6581,19 +6472,19 @@
     </row>
     <row r="175" spans="1:11" s="1" customFormat="1">
       <c r="A175" s="2" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>11</v>
+        <v>352</v>
+      </c>
+      <c r="C175" s="14">
+        <v>2</v>
       </c>
       <c r="D175" s="3">
         <v>40</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>322</v>
+      <c r="E175" s="16">
+        <v>36</v>
       </c>
       <c r="F175" s="2">
         <v>100</v>
@@ -6606,19 +6497,19 @@
     </row>
     <row r="176" spans="1:11" s="1" customFormat="1">
       <c r="A176" s="2" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>11</v>
+        <v>354</v>
+      </c>
+      <c r="C176" s="14">
+        <v>2</v>
       </c>
       <c r="D176" s="3">
         <v>60</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>244</v>
+      <c r="E176" s="16">
+        <v>50</v>
       </c>
       <c r="F176" s="2">
         <v>80</v>
@@ -6631,19 +6522,19 @@
     </row>
     <row r="177" spans="1:11" s="1" customFormat="1">
       <c r="A177" s="2" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>11</v>
+        <v>356</v>
+      </c>
+      <c r="C177" s="14">
+        <v>2</v>
       </c>
       <c r="D177" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>238</v>
+      <c r="E177" s="16">
+        <v>69</v>
       </c>
       <c r="F177" s="2">
         <v>100</v>

--- a/2018软件工程导论.xlsx
+++ b/2018软件工程导论.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="366">
   <si>
     <t>《软件工程学科导论》201801学期学生花名册</t>
   </si>
@@ -1088,6 +1088,38 @@
   </si>
   <si>
     <t>作业三</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业四(6)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1778,6 +1810,18 @@
     <xf numFmtId="176" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1794,18 +1838,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2124,11 +2156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -2137,38 +2169,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
@@ -2189,7 +2221,9 @@
       <c r="F3" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2202,7 +2236,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
       <c r="D4" s="3">
@@ -2227,7 +2261,7 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <v>2</v>
       </c>
       <c r="D5" s="3">
@@ -2252,7 +2286,7 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>2</v>
       </c>
       <c r="D6" s="3">
@@ -2277,7 +2311,7 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="3">
@@ -2302,7 +2336,7 @@
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="8">
         <v>2</v>
       </c>
       <c r="D8" s="3">
@@ -2327,7 +2361,7 @@
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="8">
         <v>2</v>
       </c>
       <c r="D9" s="3">
@@ -2352,7 +2386,7 @@
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="8">
         <v>2</v>
       </c>
       <c r="D10" s="3">
@@ -2377,7 +2411,7 @@
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="8">
         <v>2</v>
       </c>
       <c r="D11" s="3">
@@ -2402,7 +2436,7 @@
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="8">
         <v>2</v>
       </c>
       <c r="D12" s="3">
@@ -2427,7 +2461,7 @@
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="8">
         <v>2</v>
       </c>
       <c r="D13" s="3">
@@ -2452,7 +2486,7 @@
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="8">
         <v>2</v>
       </c>
       <c r="D14" s="3">
@@ -2477,7 +2511,7 @@
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="8">
         <v>2</v>
       </c>
       <c r="D15" s="3">
@@ -2502,7 +2536,7 @@
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="8">
         <v>2</v>
       </c>
       <c r="D16" s="3">
@@ -2527,7 +2561,7 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="3">
@@ -2552,7 +2586,7 @@
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="8">
         <v>2</v>
       </c>
       <c r="D18" s="3">
@@ -2577,7 +2611,7 @@
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="8">
         <v>2</v>
       </c>
       <c r="D19" s="3">
@@ -2602,7 +2636,7 @@
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
       <c r="D20" s="3">
@@ -2627,7 +2661,7 @@
       <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="8">
         <v>2</v>
       </c>
       <c r="D21" s="3">
@@ -2652,7 +2686,7 @@
       <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="8">
         <v>2</v>
       </c>
       <c r="D22" s="3">
@@ -2677,7 +2711,7 @@
       <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="8">
         <v>2</v>
       </c>
       <c r="D23" s="3">
@@ -2702,7 +2736,7 @@
       <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="8">
         <v>2</v>
       </c>
       <c r="D24" s="3">
@@ -2714,7 +2748,9 @@
       <c r="F24" s="2">
         <v>90</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2727,7 +2763,7 @@
       <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="8">
         <v>2</v>
       </c>
       <c r="D25" s="3">
@@ -2752,7 +2788,7 @@
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="8">
         <v>2</v>
       </c>
       <c r="D26" s="3">
@@ -2764,7 +2800,9 @@
       <c r="F26" s="2">
         <v>100</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2777,7 +2815,7 @@
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="8">
         <v>2</v>
       </c>
       <c r="D27" s="3">
@@ -2802,7 +2840,7 @@
       <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="8">
         <v>2</v>
       </c>
       <c r="D28" s="3">
@@ -2827,7 +2865,7 @@
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="8">
         <v>2</v>
       </c>
       <c r="D29" s="3">
@@ -2839,7 +2877,9 @@
       <c r="F29" s="2">
         <v>100</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2852,7 +2892,7 @@
       <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="8">
         <v>2</v>
       </c>
       <c r="D30" s="3">
@@ -2877,7 +2917,7 @@
       <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="8">
         <v>2</v>
       </c>
       <c r="D31" s="3">
@@ -2902,7 +2942,7 @@
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="8">
         <v>2</v>
       </c>
       <c r="D32" s="3">
@@ -2914,7 +2954,9 @@
       <c r="F32" s="2">
         <v>0</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2927,7 +2969,7 @@
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="8">
         <v>2</v>
       </c>
       <c r="D33" s="3">
@@ -2939,7 +2981,9 @@
       <c r="F33" s="2">
         <v>80</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2952,7 +2996,7 @@
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="8">
         <v>2</v>
       </c>
       <c r="D34" s="3">
@@ -2977,7 +3021,7 @@
       <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="8">
         <v>2</v>
       </c>
       <c r="D35" s="3">
@@ -3002,7 +3046,7 @@
       <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="8">
         <v>2</v>
       </c>
       <c r="D36" s="3">
@@ -3014,7 +3058,9 @@
       <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3027,7 +3073,7 @@
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="8">
         <v>2</v>
       </c>
       <c r="D37" s="3">
@@ -3039,7 +3085,9 @@
       <c r="F37" s="2">
         <v>100</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3052,7 +3100,7 @@
       <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="8">
         <v>2</v>
       </c>
       <c r="D38" s="3">
@@ -3077,7 +3125,7 @@
       <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="8">
         <v>2</v>
       </c>
       <c r="D39" s="3">
@@ -3089,7 +3137,9 @@
       <c r="F39" s="2">
         <v>100</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -3102,7 +3152,7 @@
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="8">
         <v>2</v>
       </c>
       <c r="D40" s="3">
@@ -3114,7 +3164,9 @@
       <c r="F40" s="2">
         <v>80</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -3127,7 +3179,7 @@
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="8">
         <v>2</v>
       </c>
       <c r="D41" s="3">
@@ -3152,7 +3204,7 @@
       <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="8">
         <v>2</v>
       </c>
       <c r="D42" s="3">
@@ -3177,7 +3229,7 @@
       <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="8">
         <v>2</v>
       </c>
       <c r="D43" s="3">
@@ -3202,7 +3254,7 @@
       <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="8">
         <v>2</v>
       </c>
       <c r="D44" s="3">
@@ -3227,7 +3279,7 @@
       <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="8">
         <v>2</v>
       </c>
       <c r="D45" s="3">
@@ -3239,7 +3291,9 @@
       <c r="F45" s="2">
         <v>100</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -3252,7 +3306,7 @@
       <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="8">
         <v>2</v>
       </c>
       <c r="D46" s="3">
@@ -3264,7 +3318,9 @@
       <c r="F46" s="2">
         <v>80</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -3277,7 +3333,7 @@
       <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="8">
         <v>2</v>
       </c>
       <c r="D47" s="3">
@@ -3289,7 +3345,9 @@
       <c r="F47" s="2">
         <v>0</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -3302,7 +3360,7 @@
       <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="8">
         <v>2</v>
       </c>
       <c r="D48" s="3">
@@ -3327,7 +3385,7 @@
       <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="8">
         <v>2</v>
       </c>
       <c r="D49" s="3">
@@ -3339,7 +3397,9 @@
       <c r="F49" s="2">
         <v>100</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -3352,7 +3412,7 @@
       <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="8">
         <v>2</v>
       </c>
       <c r="D50" s="3">
@@ -3377,7 +3437,7 @@
       <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="8">
         <v>2</v>
       </c>
       <c r="D51" s="3">
@@ -3402,7 +3462,7 @@
       <c r="B52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="8">
         <v>2</v>
       </c>
       <c r="D52" s="3">
@@ -3427,7 +3487,7 @@
       <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="8">
         <v>2</v>
       </c>
       <c r="D53" s="3">
@@ -3452,7 +3512,7 @@
       <c r="B54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="8">
         <v>2</v>
       </c>
       <c r="D54" s="3">
@@ -3464,7 +3524,9 @@
       <c r="F54" s="2">
         <v>100</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -3477,7 +3539,7 @@
       <c r="B55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="8">
         <v>2</v>
       </c>
       <c r="D55" s="3">
@@ -3489,7 +3551,9 @@
       <c r="F55" s="2">
         <v>80</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -3502,7 +3566,7 @@
       <c r="B56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="8">
         <v>2</v>
       </c>
       <c r="D56" s="3">
@@ -3527,7 +3591,7 @@
       <c r="B57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="8">
         <v>2</v>
       </c>
       <c r="D57" s="3">
@@ -3539,7 +3603,9 @@
       <c r="F57" s="2">
         <v>80</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -3552,7 +3618,7 @@
       <c r="B58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="8">
         <v>2</v>
       </c>
       <c r="D58" s="3">
@@ -3577,7 +3643,7 @@
       <c r="B59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="8">
         <v>2</v>
       </c>
       <c r="D59" s="3">
@@ -3602,7 +3668,7 @@
       <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="8">
         <v>2</v>
       </c>
       <c r="D60" s="3">
@@ -3627,7 +3693,7 @@
       <c r="B61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="8">
         <v>2</v>
       </c>
       <c r="D61" s="3">
@@ -3639,7 +3705,9 @@
       <c r="F61" s="2">
         <v>100</v>
       </c>
-      <c r="G61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3652,7 +3720,7 @@
       <c r="B62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="8">
         <v>2</v>
       </c>
       <c r="D62" s="3">
@@ -3677,7 +3745,7 @@
       <c r="B63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="8">
         <v>2</v>
       </c>
       <c r="D63" s="3">
@@ -3702,7 +3770,7 @@
       <c r="B64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="8">
         <v>2</v>
       </c>
       <c r="D64" s="3">
@@ -3727,7 +3795,7 @@
       <c r="B65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="8">
         <v>2</v>
       </c>
       <c r="D65" s="3">
@@ -3752,7 +3820,7 @@
       <c r="B66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="8">
         <v>2</v>
       </c>
       <c r="D66" s="3">
@@ -3764,7 +3832,9 @@
       <c r="F66" s="2">
         <v>90</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -3777,7 +3847,7 @@
       <c r="B67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="8">
         <v>2</v>
       </c>
       <c r="D67" s="3">
@@ -3802,7 +3872,7 @@
       <c r="B68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="8">
         <v>2</v>
       </c>
       <c r="D68" s="3">
@@ -3827,7 +3897,7 @@
       <c r="B69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="8">
         <v>2</v>
       </c>
       <c r="D69" s="3">
@@ -3839,7 +3909,9 @@
       <c r="F69" s="2">
         <v>80</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -3852,7 +3924,7 @@
       <c r="B70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="8">
         <v>2</v>
       </c>
       <c r="D70" s="3">
@@ -3877,7 +3949,7 @@
       <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="8">
         <v>2</v>
       </c>
       <c r="D71" s="3">
@@ -3902,7 +3974,7 @@
       <c r="B72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="8">
         <v>2</v>
       </c>
       <c r="D72" s="3">
@@ -3927,7 +3999,7 @@
       <c r="B73" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="8">
         <v>2</v>
       </c>
       <c r="D73" s="3">
@@ -3952,7 +4024,7 @@
       <c r="B74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="8">
         <v>2</v>
       </c>
       <c r="D74" s="3">
@@ -3964,7 +4036,9 @@
       <c r="F74" s="2">
         <v>100</v>
       </c>
-      <c r="G74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3977,7 +4051,7 @@
       <c r="B75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="8">
         <v>2</v>
       </c>
       <c r="D75" s="3">
@@ -3989,7 +4063,9 @@
       <c r="F75" s="2">
         <v>100</v>
       </c>
-      <c r="G75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4002,7 +4078,7 @@
       <c r="B76" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="8">
         <v>2</v>
       </c>
       <c r="D76" s="3">
@@ -4014,7 +4090,9 @@
       <c r="F76" s="2">
         <v>0</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -4027,7 +4105,7 @@
       <c r="B77" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="8">
         <v>2</v>
       </c>
       <c r="D77" s="3">
@@ -4052,7 +4130,7 @@
       <c r="B78" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="8">
         <v>2</v>
       </c>
       <c r="D78" s="3">
@@ -4077,7 +4155,7 @@
       <c r="B79" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="8">
         <v>2</v>
       </c>
       <c r="D79" s="3">
@@ -4102,7 +4180,7 @@
       <c r="B80" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="8">
         <v>2</v>
       </c>
       <c r="D80" s="3">
@@ -4127,7 +4205,7 @@
       <c r="B81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="8">
         <v>2</v>
       </c>
       <c r="D81" s="3">
@@ -4152,7 +4230,7 @@
       <c r="B82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C82" s="8">
         <v>2</v>
       </c>
       <c r="D82" s="3">
@@ -4164,7 +4242,9 @@
       <c r="F82" s="2">
         <v>0</v>
       </c>
-      <c r="G82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4177,7 +4257,7 @@
       <c r="B83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="8">
         <v>2</v>
       </c>
       <c r="D83" s="3">
@@ -4189,7 +4269,9 @@
       <c r="F83" s="2">
         <v>100</v>
       </c>
-      <c r="G83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -4202,7 +4284,7 @@
       <c r="B84" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="8">
         <v>2</v>
       </c>
       <c r="D84" s="3">
@@ -4214,7 +4296,9 @@
       <c r="F84" s="2">
         <v>100</v>
       </c>
-      <c r="G84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -4227,7 +4311,7 @@
       <c r="B85" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="14">
+      <c r="C85" s="8">
         <v>2</v>
       </c>
       <c r="D85" s="3">
@@ -4239,7 +4323,9 @@
       <c r="F85" s="2">
         <v>90</v>
       </c>
-      <c r="G85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -4252,7 +4338,7 @@
       <c r="B86" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="14">
+      <c r="C86" s="8">
         <v>2</v>
       </c>
       <c r="D86" s="3">
@@ -4264,7 +4350,9 @@
       <c r="F86" s="2">
         <v>100</v>
       </c>
-      <c r="G86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -4277,7 +4365,7 @@
       <c r="B87" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="14">
+      <c r="C87" s="8">
         <v>2</v>
       </c>
       <c r="D87" s="3">
@@ -4289,7 +4377,9 @@
       <c r="F87" s="2">
         <v>80</v>
       </c>
-      <c r="G87" s="2"/>
+      <c r="G87" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -4302,7 +4392,7 @@
       <c r="B88" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="8">
         <v>2</v>
       </c>
       <c r="D88" s="3">
@@ -4314,7 +4404,9 @@
       <c r="F88" s="2">
         <v>0</v>
       </c>
-      <c r="G88" s="2"/>
+      <c r="G88" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -4327,7 +4419,7 @@
       <c r="B89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="8">
         <v>2</v>
       </c>
       <c r="D89" s="3">
@@ -4352,7 +4444,7 @@
       <c r="B90" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C90" s="8">
         <v>2</v>
       </c>
       <c r="D90" s="3">
@@ -4364,7 +4456,9 @@
       <c r="F90" s="2">
         <v>80</v>
       </c>
-      <c r="G90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -4377,7 +4471,7 @@
       <c r="B91" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C91" s="8">
         <v>2</v>
       </c>
       <c r="D91" s="3">
@@ -4402,7 +4496,7 @@
       <c r="B92" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="8">
         <v>2</v>
       </c>
       <c r="D92" s="3">
@@ -4414,7 +4508,9 @@
       <c r="F92" s="2">
         <v>0</v>
       </c>
-      <c r="G92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4427,7 +4523,7 @@
       <c r="B93" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="8">
         <v>2</v>
       </c>
       <c r="D93" s="3">
@@ -4439,7 +4535,9 @@
       <c r="F93" s="2">
         <v>100</v>
       </c>
-      <c r="G93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -4452,7 +4550,7 @@
       <c r="B94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="14">
+      <c r="C94" s="8">
         <v>2</v>
       </c>
       <c r="D94" s="3">
@@ -4464,7 +4562,9 @@
       <c r="F94" s="2">
         <v>0</v>
       </c>
-      <c r="G94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -4477,7 +4577,7 @@
       <c r="B95" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="8">
         <v>2</v>
       </c>
       <c r="D95" s="3">
@@ -4489,7 +4589,9 @@
       <c r="F95" s="2">
         <v>70</v>
       </c>
-      <c r="G95" s="2"/>
+      <c r="G95" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -4502,7 +4604,7 @@
       <c r="B96" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="8">
         <v>2</v>
       </c>
       <c r="D96" s="3">
@@ -4527,7 +4629,7 @@
       <c r="B97" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="8">
         <v>2</v>
       </c>
       <c r="D97" s="3">
@@ -4552,7 +4654,7 @@
       <c r="B98" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="8">
         <v>2</v>
       </c>
       <c r="D98" s="3">
@@ -4564,7 +4666,9 @@
       <c r="F98" s="2">
         <v>100</v>
       </c>
-      <c r="G98" s="2"/>
+      <c r="G98" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -4577,7 +4681,7 @@
       <c r="B99" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="8">
         <v>2</v>
       </c>
       <c r="D99" s="3">
@@ -4589,7 +4693,9 @@
       <c r="F99" s="2">
         <v>100</v>
       </c>
-      <c r="G99" s="2"/>
+      <c r="G99" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -4602,7 +4708,7 @@
       <c r="B100" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="8">
         <v>2</v>
       </c>
       <c r="D100" s="7">
@@ -4627,7 +4733,7 @@
       <c r="B101" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="8">
         <v>2</v>
       </c>
       <c r="D101" s="7">
@@ -4652,7 +4758,7 @@
       <c r="B102" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="14">
+      <c r="C102" s="8">
         <v>2</v>
       </c>
       <c r="D102" s="7">
@@ -4677,7 +4783,7 @@
       <c r="B103" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="8">
         <v>2</v>
       </c>
       <c r="D103" s="7">
@@ -4702,7 +4808,7 @@
       <c r="B104" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="8">
         <v>2</v>
       </c>
       <c r="D104" s="7">
@@ -4727,7 +4833,7 @@
       <c r="B105" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="8">
         <v>2</v>
       </c>
       <c r="D105" s="7">
@@ -4752,7 +4858,7 @@
       <c r="B106" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C106" s="14">
+      <c r="C106" s="8">
         <v>2</v>
       </c>
       <c r="D106" s="7">
@@ -4777,7 +4883,7 @@
       <c r="B107" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C107" s="14">
+      <c r="C107" s="8">
         <v>2</v>
       </c>
       <c r="D107" s="7">
@@ -4802,7 +4908,7 @@
       <c r="B108" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="8">
         <v>2</v>
       </c>
       <c r="D108" s="7">
@@ -4827,7 +4933,7 @@
       <c r="B109" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C109" s="14">
+      <c r="C109" s="8">
         <v>2</v>
       </c>
       <c r="D109" s="7">
@@ -4852,7 +4958,7 @@
       <c r="B110" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C110" s="14">
+      <c r="C110" s="8">
         <v>2</v>
       </c>
       <c r="D110" s="7">
@@ -4877,7 +4983,7 @@
       <c r="B111" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C111" s="14">
+      <c r="C111" s="8">
         <v>2</v>
       </c>
       <c r="D111" s="7">
@@ -4902,7 +5008,7 @@
       <c r="B112" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C112" s="14">
+      <c r="C112" s="8">
         <v>2</v>
       </c>
       <c r="D112" s="7">
@@ -4927,7 +5033,7 @@
       <c r="B113" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C113" s="14">
+      <c r="C113" s="8">
         <v>2</v>
       </c>
       <c r="D113" s="7">
@@ -4952,7 +5058,7 @@
       <c r="B114" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="14">
+      <c r="C114" s="8">
         <v>2</v>
       </c>
       <c r="D114" s="7">
@@ -4977,7 +5083,7 @@
       <c r="B115" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C115" s="14">
+      <c r="C115" s="8">
         <v>2</v>
       </c>
       <c r="D115" s="7">
@@ -5002,7 +5108,7 @@
       <c r="B116" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C116" s="14">
+      <c r="C116" s="8">
         <v>2</v>
       </c>
       <c r="D116" s="7">
@@ -5027,13 +5133,13 @@
       <c r="B117" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="14">
+      <c r="C117" s="8">
         <v>2</v>
       </c>
       <c r="D117" s="5">
         <v>100</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117" s="8">
         <v>69</v>
       </c>
       <c r="F117" s="4">
@@ -5052,13 +5158,13 @@
       <c r="B118" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C118" s="14">
+      <c r="C118" s="8">
         <v>2</v>
       </c>
       <c r="D118" s="5">
         <v>86</v>
       </c>
-      <c r="E118" s="14">
+      <c r="E118" s="8">
         <v>88</v>
       </c>
       <c r="F118" s="4">
@@ -5077,13 +5183,13 @@
       <c r="B119" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="14">
+      <c r="C119" s="8">
         <v>2</v>
       </c>
       <c r="D119" s="5">
         <v>40</v>
       </c>
-      <c r="E119" s="14">
+      <c r="E119" s="8">
         <v>50</v>
       </c>
       <c r="F119" s="4">
@@ -5102,13 +5208,13 @@
       <c r="B120" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="14">
+      <c r="C120" s="8">
         <v>2</v>
       </c>
       <c r="D120" s="5">
         <v>86</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120" s="8">
         <v>86</v>
       </c>
       <c r="F120" s="4">
@@ -5127,13 +5233,13 @@
       <c r="B121" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C121" s="14">
+      <c r="C121" s="8">
         <v>2</v>
       </c>
       <c r="D121" s="5">
         <v>93</v>
       </c>
-      <c r="E121" s="14">
+      <c r="E121" s="8">
         <v>96</v>
       </c>
       <c r="F121" s="4">
@@ -5152,13 +5258,13 @@
       <c r="B122" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C122" s="14">
-        <v>2</v>
-      </c>
-      <c r="D122" s="15">
+      <c r="C122" s="8">
+        <v>2</v>
+      </c>
+      <c r="D122" s="9">
         <v>73</v>
       </c>
-      <c r="E122" s="14">
+      <c r="E122" s="8">
         <v>55</v>
       </c>
       <c r="F122" s="4">
@@ -5177,13 +5283,13 @@
       <c r="B123" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C123" s="14">
-        <v>2</v>
-      </c>
-      <c r="D123" s="15">
+      <c r="C123" s="8">
+        <v>2</v>
+      </c>
+      <c r="D123" s="9">
         <v>46</v>
       </c>
-      <c r="E123" s="14">
+      <c r="E123" s="8">
         <v>79</v>
       </c>
       <c r="F123" s="4">
@@ -5202,13 +5308,13 @@
       <c r="B124" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C124" s="14">
+      <c r="C124" s="8">
         <v>2</v>
       </c>
       <c r="D124" s="5">
         <v>93</v>
       </c>
-      <c r="E124" s="14">
+      <c r="E124" s="8">
         <v>88</v>
       </c>
       <c r="F124" s="4">
@@ -5227,13 +5333,13 @@
       <c r="B125" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="14">
+      <c r="C125" s="8">
         <v>2</v>
       </c>
       <c r="D125" s="5">
         <v>80</v>
       </c>
-      <c r="E125" s="14">
+      <c r="E125" s="8">
         <v>88</v>
       </c>
       <c r="F125" s="4">
@@ -5252,13 +5358,13 @@
       <c r="B126" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C126" s="14">
-        <v>2</v>
-      </c>
-      <c r="D126" s="15">
+      <c r="C126" s="8">
+        <v>2</v>
+      </c>
+      <c r="D126" s="9">
         <v>73</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E126" s="8">
         <v>65</v>
       </c>
       <c r="F126" s="4">
@@ -5277,13 +5383,13 @@
       <c r="B127" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C127" s="14">
+      <c r="C127" s="8">
         <v>2</v>
       </c>
       <c r="D127" s="5">
         <v>73</v>
       </c>
-      <c r="E127" s="14">
+      <c r="E127" s="8">
         <v>78</v>
       </c>
       <c r="F127" s="4">
@@ -5302,13 +5408,13 @@
       <c r="B128" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C128" s="14">
+      <c r="C128" s="8">
         <v>2</v>
       </c>
       <c r="D128" s="5">
         <v>46</v>
       </c>
-      <c r="E128" s="14">
+      <c r="E128" s="8">
         <v>60</v>
       </c>
       <c r="F128" s="4">
@@ -5327,13 +5433,13 @@
       <c r="B129" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C129" s="14">
+      <c r="C129" s="8">
         <v>2</v>
       </c>
       <c r="D129" s="5">
         <v>93</v>
       </c>
-      <c r="E129" s="14">
+      <c r="E129" s="8">
         <v>90</v>
       </c>
       <c r="F129" s="4">
@@ -5352,13 +5458,13 @@
       <c r="B130" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C130" s="14">
+      <c r="C130" s="8">
         <v>2</v>
       </c>
       <c r="D130" s="5">
         <v>66</v>
       </c>
-      <c r="E130" s="14">
+      <c r="E130" s="8">
         <v>69</v>
       </c>
       <c r="F130" s="4">
@@ -5377,13 +5483,13 @@
       <c r="B131" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C131" s="14">
+      <c r="C131" s="8">
         <v>2</v>
       </c>
       <c r="D131" s="5">
         <v>66</v>
       </c>
-      <c r="E131" s="14">
+      <c r="E131" s="8">
         <v>66</v>
       </c>
       <c r="F131" s="4">
@@ -5402,13 +5508,13 @@
       <c r="B132" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C132" s="14">
-        <v>2</v>
-      </c>
-      <c r="D132" s="15">
+      <c r="C132" s="8">
+        <v>2</v>
+      </c>
+      <c r="D132" s="9">
         <v>73</v>
       </c>
-      <c r="E132" s="14">
+      <c r="E132" s="8">
         <v>66</v>
       </c>
       <c r="F132" s="4">
@@ -5427,13 +5533,13 @@
       <c r="B133" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="14">
+      <c r="C133" s="8">
         <v>2</v>
       </c>
       <c r="D133" s="5">
         <v>60</v>
       </c>
-      <c r="E133" s="14">
+      <c r="E133" s="8">
         <v>67</v>
       </c>
       <c r="F133" s="4">
@@ -5452,13 +5558,13 @@
       <c r="B134" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C134" s="14">
-        <v>2</v>
-      </c>
-      <c r="D134" s="15">
+      <c r="C134" s="8">
+        <v>2</v>
+      </c>
+      <c r="D134" s="9">
         <v>80</v>
       </c>
-      <c r="E134" s="14">
+      <c r="E134" s="8">
         <v>89</v>
       </c>
       <c r="F134" s="4">
@@ -5477,13 +5583,13 @@
       <c r="B135" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C135" s="14">
+      <c r="C135" s="8">
         <v>2</v>
       </c>
       <c r="D135" s="5">
         <v>53</v>
       </c>
-      <c r="E135" s="14">
+      <c r="E135" s="8">
         <v>60</v>
       </c>
       <c r="F135" s="4">
@@ -5502,13 +5608,13 @@
       <c r="B136" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C136" s="14">
+      <c r="C136" s="8">
         <v>2</v>
       </c>
       <c r="D136" s="5">
         <v>73</v>
       </c>
-      <c r="E136" s="14">
+      <c r="E136" s="8">
         <v>79</v>
       </c>
       <c r="F136" s="4">
@@ -5527,7 +5633,7 @@
       <c r="B137" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C137" s="14">
+      <c r="C137" s="8">
         <v>2</v>
       </c>
       <c r="D137" s="7">
@@ -5552,7 +5658,7 @@
       <c r="B138" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C138" s="14">
+      <c r="C138" s="8">
         <v>2</v>
       </c>
       <c r="D138" s="7">
@@ -5577,7 +5683,7 @@
       <c r="B139" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C139" s="14">
+      <c r="C139" s="8">
         <v>2</v>
       </c>
       <c r="D139" s="7">
@@ -5602,7 +5708,7 @@
       <c r="B140" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C140" s="14">
+      <c r="C140" s="8">
         <v>2</v>
       </c>
       <c r="D140" s="3">
@@ -5627,7 +5733,7 @@
       <c r="B141" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C141" s="14">
+      <c r="C141" s="8">
         <v>2</v>
       </c>
       <c r="D141" s="3">
@@ -5652,7 +5758,7 @@
       <c r="B142" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C142" s="14">
+      <c r="C142" s="8">
         <v>2</v>
       </c>
       <c r="D142" s="3">
@@ -5677,7 +5783,7 @@
       <c r="B143" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C143" s="14">
+      <c r="C143" s="8">
         <v>2</v>
       </c>
       <c r="D143" s="3">
@@ -5702,13 +5808,13 @@
       <c r="B144" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C144" s="14">
+      <c r="C144" s="8">
         <v>2</v>
       </c>
       <c r="D144" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E144" s="16">
+      <c r="E144" s="10">
         <v>67</v>
       </c>
       <c r="F144" s="2">
@@ -5727,13 +5833,13 @@
       <c r="B145" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C145" s="14">
+      <c r="C145" s="8">
         <v>2</v>
       </c>
       <c r="D145" s="3">
         <v>60</v>
       </c>
-      <c r="E145" s="16">
+      <c r="E145" s="10">
         <v>35</v>
       </c>
       <c r="F145" s="2">
@@ -5752,13 +5858,13 @@
       <c r="B146" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C146" s="14">
+      <c r="C146" s="8">
         <v>2</v>
       </c>
       <c r="D146" s="3">
         <v>0</v>
       </c>
-      <c r="E146" s="16">
+      <c r="E146" s="10">
         <v>30</v>
       </c>
       <c r="F146" s="2">
@@ -5777,13 +5883,13 @@
       <c r="B147" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C147" s="14">
+      <c r="C147" s="8">
         <v>2</v>
       </c>
       <c r="D147" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E147" s="16">
+      <c r="E147" s="10">
         <v>53</v>
       </c>
       <c r="F147" s="2">
@@ -5802,13 +5908,13 @@
       <c r="B148" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C148" s="14">
+      <c r="C148" s="8">
         <v>2</v>
       </c>
       <c r="D148" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E148" s="16">
+      <c r="E148" s="10">
         <v>90</v>
       </c>
       <c r="F148" s="2">
@@ -5827,13 +5933,13 @@
       <c r="B149" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C149" s="14">
+      <c r="C149" s="8">
         <v>2</v>
       </c>
       <c r="D149" s="3">
         <v>93.3333333333333</v>
       </c>
-      <c r="E149" s="16">
+      <c r="E149" s="10">
         <v>36</v>
       </c>
       <c r="F149" s="2">
@@ -5852,13 +5958,13 @@
       <c r="B150" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C150" s="14">
+      <c r="C150" s="8">
         <v>2</v>
       </c>
       <c r="D150" s="3">
         <v>80</v>
       </c>
-      <c r="E150" s="17">
+      <c r="E150" s="11">
         <v>67</v>
       </c>
       <c r="F150" s="2">
@@ -5877,19 +5983,21 @@
       <c r="B151" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C151" s="14">
+      <c r="C151" s="8">
         <v>2</v>
       </c>
       <c r="D151" s="3">
         <v>93.3333333333333</v>
       </c>
-      <c r="E151" s="16">
+      <c r="E151" s="10">
         <v>67</v>
       </c>
       <c r="F151" s="2">
         <v>80</v>
       </c>
-      <c r="G151" s="2"/>
+      <c r="G151" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
@@ -5902,13 +6010,13 @@
       <c r="B152" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C152" s="14">
+      <c r="C152" s="8">
         <v>2</v>
       </c>
       <c r="D152" s="3">
         <v>0</v>
       </c>
-      <c r="E152" s="16">
+      <c r="E152" s="10">
         <v>36</v>
       </c>
       <c r="F152" s="2">
@@ -5927,13 +6035,13 @@
       <c r="B153" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C153" s="14">
+      <c r="C153" s="8">
         <v>2</v>
       </c>
       <c r="D153" s="3">
         <v>66.6666666666667</v>
       </c>
-      <c r="E153" s="16">
+      <c r="E153" s="10">
         <v>57</v>
       </c>
       <c r="F153" s="2">
@@ -5952,19 +6060,21 @@
       <c r="B154" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C154" s="14">
+      <c r="C154" s="8">
         <v>2</v>
       </c>
       <c r="D154" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E154" s="16">
+      <c r="E154" s="10">
         <v>60</v>
       </c>
       <c r="F154" s="2">
         <v>100</v>
       </c>
-      <c r="G154" s="2"/>
+      <c r="G154" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -5977,13 +6087,13 @@
       <c r="B155" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C155" s="14">
+      <c r="C155" s="8">
         <v>2</v>
       </c>
       <c r="D155" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E155" s="16">
+      <c r="E155" s="10">
         <v>34</v>
       </c>
       <c r="F155" s="2">
@@ -6002,13 +6112,13 @@
       <c r="B156" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C156" s="14">
+      <c r="C156" s="8">
         <v>2</v>
       </c>
       <c r="D156" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E156" s="16">
+      <c r="E156" s="10">
         <v>50</v>
       </c>
       <c r="F156" s="2">
@@ -6027,19 +6137,21 @@
       <c r="B157" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C157" s="14">
+      <c r="C157" s="8">
         <v>2</v>
       </c>
       <c r="D157" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E157" s="16">
+      <c r="E157" s="10">
         <v>35</v>
       </c>
       <c r="F157" s="2">
         <v>60</v>
       </c>
-      <c r="G157" s="2"/>
+      <c r="G157" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -6052,13 +6164,13 @@
       <c r="B158" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C158" s="14">
+      <c r="C158" s="8">
         <v>2</v>
       </c>
       <c r="D158" s="3">
         <v>73.3333333333333</v>
       </c>
-      <c r="E158" s="16">
+      <c r="E158" s="10">
         <v>100</v>
       </c>
       <c r="F158" s="2">
@@ -6077,19 +6189,21 @@
       <c r="B159" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="8">
         <v>2</v>
       </c>
       <c r="D159" s="3">
         <v>80</v>
       </c>
-      <c r="E159" s="16">
+      <c r="E159" s="10">
         <v>68</v>
       </c>
       <c r="F159" s="2">
         <v>100</v>
       </c>
-      <c r="G159" s="2"/>
+      <c r="G159" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -6102,13 +6216,13 @@
       <c r="B160" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="8">
         <v>2</v>
       </c>
       <c r="D160" s="3">
         <v>80</v>
       </c>
-      <c r="E160" s="16">
+      <c r="E160" s="10">
         <v>69</v>
       </c>
       <c r="F160" s="2">
@@ -6127,13 +6241,13 @@
       <c r="B161" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="8">
         <v>2</v>
       </c>
       <c r="D161" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E161" s="16">
+      <c r="E161" s="10">
         <v>60</v>
       </c>
       <c r="F161" s="2">
@@ -6152,13 +6266,13 @@
       <c r="B162" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="8">
         <v>2</v>
       </c>
       <c r="D162" s="3">
         <v>93.3333333333333</v>
       </c>
-      <c r="E162" s="16">
+      <c r="E162" s="10">
         <v>20</v>
       </c>
       <c r="F162" s="2">
@@ -6177,13 +6291,13 @@
       <c r="B163" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C163" s="14">
+      <c r="C163" s="8">
         <v>2</v>
       </c>
       <c r="D163" s="3">
         <v>60</v>
       </c>
-      <c r="E163" s="16">
+      <c r="E163" s="10">
         <v>89</v>
       </c>
       <c r="F163" s="2">
@@ -6202,13 +6316,13 @@
       <c r="B164" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C164" s="14">
+      <c r="C164" s="8">
         <v>2</v>
       </c>
       <c r="D164" s="3">
         <v>66.6666666666667</v>
       </c>
-      <c r="E164" s="16">
+      <c r="E164" s="10">
         <v>70</v>
       </c>
       <c r="F164" s="2">
@@ -6227,19 +6341,21 @@
       <c r="B165" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C165" s="14">
+      <c r="C165" s="8">
         <v>2</v>
       </c>
       <c r="D165" s="3">
         <v>100</v>
       </c>
-      <c r="E165" s="16">
+      <c r="E165" s="10">
         <v>80</v>
       </c>
       <c r="F165" s="2">
         <v>100</v>
       </c>
-      <c r="G165" s="2"/>
+      <c r="G165" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -6252,13 +6368,13 @@
       <c r="B166" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C166" s="14">
+      <c r="C166" s="8">
         <v>2</v>
       </c>
       <c r="D166" s="3">
         <v>80</v>
       </c>
-      <c r="E166" s="16">
+      <c r="E166" s="10">
         <v>35</v>
       </c>
       <c r="F166" s="2">
@@ -6277,19 +6393,21 @@
       <c r="B167" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C167" s="14">
+      <c r="C167" s="8">
         <v>2</v>
       </c>
       <c r="D167" s="3">
         <v>66.6666666666667</v>
       </c>
-      <c r="E167" s="16">
+      <c r="E167" s="10">
         <v>71</v>
       </c>
       <c r="F167" s="2">
         <v>90</v>
       </c>
-      <c r="G167" s="2"/>
+      <c r="G167" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -6302,13 +6420,13 @@
       <c r="B168" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C168" s="14">
+      <c r="C168" s="8">
         <v>2</v>
       </c>
       <c r="D168" s="3">
         <v>60</v>
       </c>
-      <c r="E168" s="16">
+      <c r="E168" s="10">
         <v>81</v>
       </c>
       <c r="F168" s="2">
@@ -6327,19 +6445,21 @@
       <c r="B169" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C169" s="14">
+      <c r="C169" s="8">
         <v>2</v>
       </c>
       <c r="D169" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E169" s="16">
+      <c r="E169" s="10">
         <v>78</v>
       </c>
       <c r="F169" s="2">
         <v>70</v>
       </c>
-      <c r="G169" s="2"/>
+      <c r="G169" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -6352,13 +6472,13 @@
       <c r="B170" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C170" s="14">
+      <c r="C170" s="8">
         <v>2</v>
       </c>
       <c r="D170" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E170" s="16">
+      <c r="E170" s="10">
         <v>68</v>
       </c>
       <c r="F170" s="2">
@@ -6377,13 +6497,13 @@
       <c r="B171" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C171" s="14">
+      <c r="C171" s="8">
         <v>2</v>
       </c>
       <c r="D171" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E171" s="16">
+      <c r="E171" s="10">
         <v>57</v>
       </c>
       <c r="F171" s="2">
@@ -6402,13 +6522,13 @@
       <c r="B172" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C172" s="14">
+      <c r="C172" s="8">
         <v>2</v>
       </c>
       <c r="D172" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E172" s="16">
+      <c r="E172" s="10">
         <v>59</v>
       </c>
       <c r="F172" s="2">
@@ -6427,19 +6547,21 @@
       <c r="B173" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C173" s="14">
+      <c r="C173" s="8">
         <v>2</v>
       </c>
       <c r="D173" s="3">
         <v>80</v>
       </c>
-      <c r="E173" s="16">
+      <c r="E173" s="10">
         <v>57</v>
       </c>
       <c r="F173" s="2">
         <v>90</v>
       </c>
-      <c r="G173" s="2"/>
+      <c r="G173" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
@@ -6452,13 +6574,13 @@
       <c r="B174" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C174" s="14">
+      <c r="C174" s="8">
         <v>2</v>
       </c>
       <c r="D174" s="3">
         <v>0</v>
       </c>
-      <c r="E174" s="16">
+      <c r="E174" s="10">
         <v>79</v>
       </c>
       <c r="F174" s="2">
@@ -6477,19 +6599,21 @@
       <c r="B175" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C175" s="14">
+      <c r="C175" s="8">
         <v>2</v>
       </c>
       <c r="D175" s="3">
         <v>40</v>
       </c>
-      <c r="E175" s="16">
+      <c r="E175" s="10">
         <v>36</v>
       </c>
       <c r="F175" s="2">
         <v>100</v>
       </c>
-      <c r="G175" s="2"/>
+      <c r="G175" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -6502,13 +6626,13 @@
       <c r="B176" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C176" s="14">
+      <c r="C176" s="8">
         <v>2</v>
       </c>
       <c r="D176" s="3">
         <v>60</v>
       </c>
-      <c r="E176" s="16">
+      <c r="E176" s="10">
         <v>50</v>
       </c>
       <c r="F176" s="2">
@@ -6527,13 +6651,13 @@
       <c r="B177" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C177" s="14">
+      <c r="C177" s="8">
         <v>2</v>
       </c>
       <c r="D177" s="3">
         <v>86.6666666666667</v>
       </c>
-      <c r="E177" s="16">
+      <c r="E177" s="10">
         <v>69</v>
       </c>
       <c r="F177" s="2">

--- a/2018软件工程导论.xlsx
+++ b/2018软件工程导论.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="379">
   <si>
     <t>《软件工程学科导论》201801学期学生花名册</t>
   </si>
@@ -1120,6 +1120,58 @@
   </si>
   <si>
     <t>80</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -2156,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2723,7 +2775,9 @@
       <c r="F23" s="2">
         <v>90</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2775,7 +2829,9 @@
       <c r="F25" s="2">
         <v>100</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2827,7 +2883,9 @@
       <c r="F27" s="2">
         <v>70</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2929,7 +2987,9 @@
       <c r="F31" s="2">
         <v>100</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -3008,7 +3068,9 @@
       <c r="F34" s="2">
         <v>100</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3033,7 +3095,9 @@
       <c r="F35" s="2">
         <v>80</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3112,7 +3176,9 @@
       <c r="F38" s="2">
         <v>70</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -3191,7 +3257,9 @@
       <c r="F41" s="2">
         <v>100</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3216,7 +3284,9 @@
       <c r="F42" s="2">
         <v>100</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3266,7 +3336,9 @@
       <c r="F44" s="2">
         <v>100</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -3372,7 +3444,9 @@
       <c r="F48" s="2">
         <v>0</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -3424,7 +3498,9 @@
       <c r="F50" s="2">
         <v>0</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3449,7 +3525,9 @@
       <c r="F51" s="2">
         <v>90</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -3474,7 +3552,9 @@
       <c r="F52" s="2">
         <v>0</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -3499,7 +3579,9 @@
       <c r="F53" s="2">
         <v>0</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -3630,7 +3712,9 @@
       <c r="F58" s="2">
         <v>0</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3655,7 +3739,9 @@
       <c r="F59" s="2">
         <v>90</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -5645,7 +5731,9 @@
       <c r="F137" s="4">
         <v>90</v>
       </c>
-      <c r="G137" s="4"/>
+      <c r="G137" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -5720,7 +5808,9 @@
       <c r="F140" s="2">
         <v>70</v>
       </c>
-      <c r="G140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
@@ -5770,7 +5860,9 @@
       <c r="F142" s="2">
         <v>90</v>
       </c>
-      <c r="G142" s="2"/>
+      <c r="G142" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
@@ -5795,7 +5887,9 @@
       <c r="F143" s="2">
         <v>90</v>
       </c>
-      <c r="G143" s="2"/>
+      <c r="G143" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
@@ -5820,7 +5914,9 @@
       <c r="F144" s="2">
         <v>90</v>
       </c>
-      <c r="G144" s="2"/>
+      <c r="G144" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -5845,7 +5941,9 @@
       <c r="F145" s="2">
         <v>80</v>
       </c>
-      <c r="G145" s="2"/>
+      <c r="G145" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
@@ -5870,7 +5968,9 @@
       <c r="F146" s="2">
         <v>80</v>
       </c>
-      <c r="G146" s="2"/>
+      <c r="G146" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -5895,7 +5995,9 @@
       <c r="F147" s="2">
         <v>90</v>
       </c>
-      <c r="G147" s="2"/>
+      <c r="G147" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -5920,7 +6022,9 @@
       <c r="F148" s="2">
         <v>100</v>
       </c>
-      <c r="G148" s="2"/>
+      <c r="G148" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -5945,7 +6049,9 @@
       <c r="F149" s="2">
         <v>100</v>
       </c>
-      <c r="G149" s="2"/>
+      <c r="G149" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -5970,7 +6076,9 @@
       <c r="F150" s="2">
         <v>80</v>
       </c>
-      <c r="G150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -6047,7 +6155,9 @@
       <c r="F153" s="2">
         <v>80</v>
       </c>
-      <c r="G153" s="2"/>
+      <c r="G153" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
@@ -6099,7 +6209,9 @@
       <c r="F155" s="2">
         <v>100</v>
       </c>
-      <c r="G155" s="2"/>
+      <c r="G155" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -6124,7 +6236,9 @@
       <c r="F156" s="2">
         <v>100</v>
       </c>
-      <c r="G156" s="2"/>
+      <c r="G156" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -6176,7 +6290,9 @@
       <c r="F158" s="2">
         <v>70</v>
       </c>
-      <c r="G158" s="2"/>
+      <c r="G158" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -6253,7 +6369,9 @@
       <c r="F161" s="2">
         <v>60</v>
       </c>
-      <c r="G161" s="2"/>
+      <c r="G161" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -6303,7 +6421,9 @@
       <c r="F163" s="2">
         <v>100</v>
       </c>
-      <c r="G163" s="2"/>
+      <c r="G163" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -6328,7 +6448,9 @@
       <c r="F164" s="2">
         <v>80</v>
       </c>
-      <c r="G164" s="2"/>
+      <c r="G164" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -6380,7 +6502,9 @@
       <c r="F166" s="2">
         <v>80</v>
       </c>
-      <c r="G166" s="2"/>
+      <c r="G166" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -6432,7 +6556,9 @@
       <c r="F168" s="2">
         <v>80</v>
       </c>
-      <c r="G168" s="2"/>
+      <c r="G168" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -6484,7 +6610,9 @@
       <c r="F170" s="2">
         <v>90</v>
       </c>
-      <c r="G170" s="2"/>
+      <c r="G170" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
@@ -6509,7 +6637,9 @@
       <c r="F171" s="2">
         <v>90</v>
       </c>
-      <c r="G171" s="2"/>
+      <c r="G171" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -6534,7 +6664,9 @@
       <c r="F172" s="2">
         <v>90</v>
       </c>
-      <c r="G172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -6638,7 +6770,9 @@
       <c r="F176" s="2">
         <v>80</v>
       </c>
-      <c r="G176" s="2"/>
+      <c r="G176" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
@@ -6663,7 +6797,9 @@
       <c r="F177" s="2">
         <v>100</v>
       </c>
-      <c r="G177" s="2"/>
+      <c r="G177" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>

--- a/2018软件工程导论.xlsx
+++ b/2018软件工程导论.xlsx
@@ -1149,11 +1149,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1172,6 +1172,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1182,15 +1218,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1202,11 +1230,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1218,10 +1259,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1234,14 +1321,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1249,39 +1328,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1301,31 +1352,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1338,11 +1375,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,28 +1386,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1383,36 +1398,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="66">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1439,7 +1439,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,7 +1511,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,67 +1595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,7 +1619,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,49 +1643,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,199 +1673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1866,6 +1752,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1876,15 +1777,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1918,23 +1810,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1957,24 +1843,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1989,6 +1857,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2000,10 +1886,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2012,256 +1898,256 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="53" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="52" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2329,8 +2215,8 @@
     <cellStyle name="输入" xfId="4" builtinId="20"/>
     <cellStyle name="货币" xfId="5" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="计算 2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="8"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
@@ -2365,9 +2251,9 @@
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="40"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
     <cellStyle name="输出 2" xfId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="45" builtinId="34"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="45"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="46" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="47" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
@@ -2377,8 +2263,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="53" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="54" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="56" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="55" builtinId="51"/>
+    <cellStyle name="适中 2" xfId="56"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="57"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="58" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="59"/>
@@ -2683,17 +2569,17 @@
   <sheetPr/>
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" customHeight="1" spans="1:11">
